--- a/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>ABST</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40800</v>
+        <v>55700</v>
       </c>
       <c r="E8" s="3">
-        <v>39400</v>
+        <v>40500</v>
       </c>
       <c r="F8" s="3">
-        <v>38300</v>
+        <v>39100</v>
       </c>
       <c r="G8" s="3">
-        <v>36600</v>
+        <v>38100</v>
       </c>
       <c r="H8" s="3">
-        <v>34900</v>
+        <v>36300</v>
       </c>
       <c r="I8" s="3">
-        <v>33500</v>
+        <v>34600</v>
       </c>
       <c r="J8" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K8" s="3">
         <v>33100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7100</v>
+        <v>10800</v>
       </c>
       <c r="E9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33700</v>
+        <v>44800</v>
       </c>
       <c r="E10" s="3">
-        <v>34400</v>
+        <v>33500</v>
       </c>
       <c r="F10" s="3">
-        <v>34000</v>
+        <v>34100</v>
       </c>
       <c r="G10" s="3">
-        <v>32600</v>
+        <v>33800</v>
       </c>
       <c r="H10" s="3">
-        <v>31100</v>
+        <v>32300</v>
       </c>
       <c r="I10" s="3">
-        <v>29100</v>
+        <v>30800</v>
       </c>
       <c r="J10" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K10" s="3">
         <v>29200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>23400</v>
+        <v>13100</v>
       </c>
       <c r="E12" s="3">
-        <v>6800</v>
+        <v>23300</v>
       </c>
       <c r="F12" s="3">
-        <v>7500</v>
+        <v>6700</v>
       </c>
       <c r="G12" s="3">
-        <v>6500</v>
+        <v>7400</v>
       </c>
       <c r="H12" s="3">
-        <v>7000</v>
+        <v>6400</v>
       </c>
       <c r="I12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +964,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>47000</v>
+        <v>61900</v>
       </c>
       <c r="E17" s="3">
-        <v>35200</v>
+        <v>46700</v>
       </c>
       <c r="F17" s="3">
-        <v>34300</v>
+        <v>34900</v>
       </c>
       <c r="G17" s="3">
-        <v>31200</v>
+        <v>34100</v>
       </c>
       <c r="H17" s="3">
-        <v>30300</v>
+        <v>30900</v>
       </c>
       <c r="I17" s="3">
-        <v>29300</v>
+        <v>30100</v>
       </c>
       <c r="J17" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K17" s="3">
         <v>28100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>-6200</v>
       </c>
       <c r="E18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,74 +1042,81 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
       </c>
       <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
-        <v>9600</v>
-      </c>
       <c r="F21" s="3">
-        <v>8800</v>
+        <v>9500</v>
       </c>
       <c r="G21" s="3">
-        <v>10200</v>
+        <v>8700</v>
       </c>
       <c r="H21" s="3">
-        <v>9100</v>
+        <v>10100</v>
       </c>
       <c r="I21" s="3">
         <v>9100</v>
       </c>
       <c r="J21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K21" s="3">
         <v>9400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1088,74 +1128,83 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-6600</v>
+        <v>-12700</v>
       </c>
       <c r="E23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F23" s="3">
         <v>3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4400</v>
       </c>
-      <c r="I23" s="3">
-        <v>4300</v>
-      </c>
       <c r="J23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2700</v>
-      </c>
-      <c r="E24" s="3">
-        <v>900</v>
       </c>
       <c r="F24" s="3">
         <v>900</v>
       </c>
       <c r="G24" s="3">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="H24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1500</v>
       </c>
       <c r="K24" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-3900</v>
+        <v>-9600</v>
       </c>
       <c r="E26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-3900</v>
+        <v>-9600</v>
       </c>
       <c r="E27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
       </c>
       <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3900</v>
+        <v>-9600</v>
       </c>
       <c r="E33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3900</v>
+        <v>-9600</v>
       </c>
       <c r="E35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,42 +1619,46 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>179800</v>
+        <v>70700</v>
       </c>
       <c r="E41" s="3">
-        <v>169800</v>
+        <v>178500</v>
       </c>
       <c r="F41" s="3">
-        <v>168800</v>
+        <v>168600</v>
       </c>
       <c r="G41" s="3">
-        <v>65800</v>
+        <v>167700</v>
       </c>
       <c r="H41" s="3">
-        <v>38100</v>
+        <v>65300</v>
       </c>
       <c r="I41" s="3">
-        <v>26800</v>
+        <v>37900</v>
       </c>
       <c r="J41" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K41" s="3">
         <v>24300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1577,51 +1667,57 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>8400</v>
       </c>
-      <c r="H42" s="3">
-        <v>21800</v>
-      </c>
       <c r="I42" s="3">
-        <v>22600</v>
+        <v>21600</v>
       </c>
       <c r="J42" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K42" s="3">
         <v>24700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31400</v>
+        <v>43800</v>
       </c>
       <c r="E43" s="3">
-        <v>33600</v>
+        <v>31200</v>
       </c>
       <c r="F43" s="3">
-        <v>29300</v>
+        <v>33400</v>
       </c>
       <c r="G43" s="3">
-        <v>30900</v>
+        <v>29100</v>
       </c>
       <c r="H43" s="3">
-        <v>37300</v>
+        <v>30700</v>
       </c>
       <c r="I43" s="3">
-        <v>23100</v>
+        <v>37100</v>
       </c>
       <c r="J43" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K43" s="3">
         <v>21000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,66 +1745,75 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18800</v>
+        <v>19100</v>
       </c>
       <c r="E45" s="3">
-        <v>16200</v>
+        <v>18700</v>
       </c>
       <c r="F45" s="3">
-        <v>17900</v>
+        <v>16100</v>
       </c>
       <c r="G45" s="3">
-        <v>15400</v>
+        <v>17800</v>
       </c>
       <c r="H45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I45" s="3">
         <v>13300</v>
       </c>
-      <c r="I45" s="3">
-        <v>11300</v>
-      </c>
       <c r="J45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K45" s="3">
         <v>10500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>230000</v>
+        <v>134100</v>
       </c>
       <c r="E46" s="3">
-        <v>219600</v>
+        <v>228400</v>
       </c>
       <c r="F46" s="3">
-        <v>216000</v>
+        <v>218100</v>
       </c>
       <c r="G46" s="3">
-        <v>120600</v>
+        <v>214500</v>
       </c>
       <c r="H46" s="3">
-        <v>110600</v>
+        <v>119700</v>
       </c>
       <c r="I46" s="3">
-        <v>83800</v>
+        <v>109800</v>
       </c>
       <c r="J46" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K46" s="3">
         <v>80400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18700</v>
+        <v>22300</v>
       </c>
       <c r="E48" s="3">
-        <v>20700</v>
+        <v>18600</v>
       </c>
       <c r="F48" s="3">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="G48" s="3">
-        <v>17700</v>
+        <v>20100</v>
       </c>
       <c r="H48" s="3">
-        <v>18900</v>
+        <v>17600</v>
       </c>
       <c r="I48" s="3">
-        <v>19700</v>
+        <v>18800</v>
       </c>
       <c r="J48" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K48" s="3">
         <v>17600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9500</v>
+        <v>476500</v>
       </c>
       <c r="E49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F49" s="3">
         <v>9200</v>
       </c>
-      <c r="F49" s="3">
-        <v>9500</v>
-      </c>
       <c r="G49" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="H49" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="I49" s="3">
-        <v>7200</v>
+        <v>8800</v>
       </c>
       <c r="J49" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>40200</v>
+        <v>40500</v>
       </c>
       <c r="E52" s="3">
-        <v>30500</v>
+        <v>39900</v>
       </c>
       <c r="F52" s="3">
-        <v>28700</v>
+        <v>30300</v>
       </c>
       <c r="G52" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="H52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="J52" s="3">
         <v>28600</v>
       </c>
-      <c r="I52" s="3">
-        <v>28800</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>298400</v>
+        <v>673400</v>
       </c>
       <c r="E54" s="3">
-        <v>280000</v>
+        <v>296300</v>
       </c>
       <c r="F54" s="3">
-        <v>274400</v>
+        <v>278100</v>
       </c>
       <c r="G54" s="3">
-        <v>175300</v>
+        <v>272500</v>
       </c>
       <c r="H54" s="3">
-        <v>167000</v>
+        <v>174100</v>
       </c>
       <c r="I54" s="3">
-        <v>139500</v>
+        <v>165800</v>
       </c>
       <c r="J54" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K54" s="3">
         <v>134800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18000</v>
+        <v>4300</v>
       </c>
       <c r="E57" s="3">
-        <v>6000</v>
+        <v>17900</v>
       </c>
       <c r="F57" s="3">
-        <v>5000</v>
+        <v>5900</v>
       </c>
       <c r="G57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
-        <v>5400</v>
-      </c>
       <c r="I57" s="3">
-        <v>6700</v>
+        <v>5300</v>
       </c>
       <c r="J57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3300</v>
       </c>
       <c r="F58" s="3">
         <v>3200</v>
       </c>
       <c r="G58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
-        <v>1900</v>
-      </c>
       <c r="J58" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>145400</v>
+        <v>169700</v>
       </c>
       <c r="E59" s="3">
-        <v>138000</v>
+        <v>144400</v>
       </c>
       <c r="F59" s="3">
-        <v>133300</v>
+        <v>137100</v>
       </c>
       <c r="G59" s="3">
-        <v>125500</v>
+        <v>132400</v>
       </c>
       <c r="H59" s="3">
-        <v>124600</v>
+        <v>124700</v>
       </c>
       <c r="I59" s="3">
-        <v>108900</v>
+        <v>123800</v>
       </c>
       <c r="J59" s="3">
+        <v>108200</v>
+      </c>
+      <c r="K59" s="3">
         <v>107900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>110200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>167200</v>
+        <v>180900</v>
       </c>
       <c r="E60" s="3">
-        <v>147300</v>
+        <v>166000</v>
       </c>
       <c r="F60" s="3">
-        <v>141500</v>
+        <v>146300</v>
       </c>
       <c r="G60" s="3">
-        <v>133000</v>
+        <v>140500</v>
       </c>
       <c r="H60" s="3">
-        <v>132200</v>
+        <v>132100</v>
       </c>
       <c r="I60" s="3">
-        <v>117500</v>
+        <v>131300</v>
       </c>
       <c r="J60" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K60" s="3">
         <v>114600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11500</v>
+        <v>350400</v>
       </c>
       <c r="E61" s="3">
-        <v>12700</v>
+        <v>11400</v>
       </c>
       <c r="F61" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="G61" s="3">
-        <v>10200</v>
+        <v>13300</v>
       </c>
       <c r="H61" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="I61" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="J61" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K61" s="3">
         <v>9500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>85800</v>
+        <v>119700</v>
       </c>
       <c r="E62" s="3">
-        <v>86000</v>
+        <v>85200</v>
       </c>
       <c r="F62" s="3">
-        <v>87300</v>
+        <v>85400</v>
       </c>
       <c r="G62" s="3">
-        <v>84000</v>
+        <v>86700</v>
       </c>
       <c r="H62" s="3">
-        <v>79200</v>
+        <v>83400</v>
       </c>
       <c r="I62" s="3">
-        <v>68000</v>
+        <v>78700</v>
       </c>
       <c r="J62" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K62" s="3">
         <v>70400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>264500</v>
+        <v>651100</v>
       </c>
       <c r="E66" s="3">
-        <v>246000</v>
+        <v>262600</v>
       </c>
       <c r="F66" s="3">
-        <v>242200</v>
+        <v>244300</v>
       </c>
       <c r="G66" s="3">
-        <v>227200</v>
+        <v>240500</v>
       </c>
       <c r="H66" s="3">
-        <v>222200</v>
+        <v>225700</v>
       </c>
       <c r="I66" s="3">
-        <v>196800</v>
+        <v>220700</v>
       </c>
       <c r="J66" s="3">
+        <v>195500</v>
+      </c>
+      <c r="K66" s="3">
         <v>194500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-172600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-159200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-159100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-156900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-157100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-158800</v>
+      </c>
+      <c r="J72" s="3">
         <v>-160300</v>
       </c>
-      <c r="E72" s="3">
-        <v>-160200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-158000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-158100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-159900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-161400</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-162300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-161200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33900</v>
+        <v>22300</v>
       </c>
       <c r="E76" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="F76" s="3">
-        <v>32200</v>
+        <v>33800</v>
       </c>
       <c r="G76" s="3">
-        <v>-51900</v>
+        <v>32000</v>
       </c>
       <c r="H76" s="3">
-        <v>-55200</v>
+        <v>-51600</v>
       </c>
       <c r="I76" s="3">
-        <v>-57400</v>
+        <v>-54900</v>
       </c>
       <c r="J76" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-59700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-62100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3900</v>
+        <v>-9600</v>
       </c>
       <c r="E81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5600</v>
+        <v>8200</v>
       </c>
       <c r="E83" s="3">
         <v>5600</v>
       </c>
       <c r="F83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G83" s="3">
         <v>5200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4600</v>
       </c>
       <c r="I83" s="3">
         <v>4500</v>
       </c>
       <c r="J83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K83" s="3">
         <v>4300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>17100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I89" s="3">
         <v>14700</v>
       </c>
-      <c r="E89" s="3">
-        <v>9300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>17200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>14800</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>-435500</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
-        <v>8300</v>
-      </c>
       <c r="G94" s="3">
-        <v>12200</v>
+        <v>8200</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,28 +3212,29 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-4000</v>
       </c>
-      <c r="F96" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3300</v>
       </c>
-      <c r="H96" s="3">
-        <v>-3200</v>
-      </c>
       <c r="I96" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="J96" s="3">
         <v>-3200</v>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>328600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
-        <v>77500</v>
-      </c>
       <c r="G100" s="3">
+        <v>77000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10000</v>
+        <v>-107800</v>
       </c>
       <c r="E102" s="3">
-        <v>1000</v>
+        <v>9900</v>
       </c>
       <c r="F102" s="3">
-        <v>103000</v>
+        <v>900</v>
       </c>
       <c r="G102" s="3">
-        <v>27700</v>
+        <v>102300</v>
       </c>
       <c r="H102" s="3">
+        <v>27500</v>
+      </c>
+      <c r="I102" s="3">
         <v>11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>ABST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E8" s="3">
         <v>55700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>39100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>36300</v>
       </c>
-      <c r="I8" s="3">
-        <v>34600</v>
-      </c>
       <c r="J8" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K8" s="3">
         <v>33200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="E9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F9" s="3">
         <v>7000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E10" s="3">
         <v>44800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33500</v>
       </c>
-      <c r="F10" s="3">
-        <v>34100</v>
-      </c>
       <c r="G10" s="3">
+        <v>34200</v>
+      </c>
+      <c r="H10" s="3">
         <v>33800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>32300</v>
       </c>
-      <c r="I10" s="3">
-        <v>30800</v>
-      </c>
       <c r="J10" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K10" s="3">
         <v>28900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E12" s="3">
         <v>13100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="H12" s="3">
-        <v>6400</v>
-      </c>
       <c r="I12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J12" s="3">
         <v>6900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E17" s="3">
         <v>61900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46700</v>
       </c>
-      <c r="F17" s="3">
-        <v>34900</v>
-      </c>
       <c r="G17" s="3">
+        <v>35000</v>
+      </c>
+      <c r="H17" s="3">
         <v>34100</v>
       </c>
-      <c r="H17" s="3">
-        <v>30900</v>
-      </c>
       <c r="I17" s="3">
+        <v>31000</v>
+      </c>
+      <c r="J17" s="3">
         <v>30100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6200</v>
+        <v>-3300</v>
       </c>
       <c r="E18" s="3">
         <v>-6200</v>
       </c>
       <c r="F18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G18" s="3">
         <v>4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,72 +1075,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>-200</v>
       </c>
       <c r="G20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E21" s="3">
         <v>6500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1116,10 +1155,10 @@
         <v>6600</v>
       </c>
       <c r="E22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1131,80 +1170,89 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>900</v>
       </c>
       <c r="G24" s="3">
         <v>900</v>
       </c>
       <c r="H24" s="3">
+        <v>900</v>
+      </c>
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1500</v>
       </c>
       <c r="L24" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>200</v>
       </c>
       <c r="G32" s="3">
+        <v>200</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E41" s="3">
         <v>70700</v>
       </c>
-      <c r="E41" s="3">
-        <v>178500</v>
-      </c>
       <c r="F41" s="3">
-        <v>168600</v>
+        <v>178600</v>
       </c>
       <c r="G41" s="3">
+        <v>168700</v>
+      </c>
+      <c r="H41" s="3">
         <v>167700</v>
       </c>
-      <c r="H41" s="3">
-        <v>65300</v>
-      </c>
       <c r="I41" s="3">
+        <v>65400</v>
+      </c>
+      <c r="J41" s="3">
         <v>37900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1661,7 +1750,7 @@
         <v>500</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1670,54 +1759,60 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>8400</v>
       </c>
-      <c r="I42" s="3">
-        <v>21600</v>
-      </c>
       <c r="J42" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K42" s="3">
         <v>22400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E43" s="3">
         <v>43800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,72 +1843,81 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E45" s="3">
         <v>19100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>152300</v>
+      </c>
+      <c r="E46" s="3">
         <v>134100</v>
       </c>
-      <c r="E46" s="3">
-        <v>228400</v>
-      </c>
       <c r="F46" s="3">
-        <v>218100</v>
+        <v>228500</v>
       </c>
       <c r="G46" s="3">
-        <v>214500</v>
+        <v>218200</v>
       </c>
       <c r="H46" s="3">
-        <v>119700</v>
+        <v>214600</v>
       </c>
       <c r="I46" s="3">
-        <v>109800</v>
+        <v>119800</v>
       </c>
       <c r="J46" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K46" s="3">
         <v>83200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +1948,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E48" s="3">
         <v>22300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18600</v>
       </c>
-      <c r="F48" s="3">
-        <v>20500</v>
-      </c>
       <c r="G48" s="3">
+        <v>20600</v>
+      </c>
+      <c r="H48" s="3">
         <v>20100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>476500</v>
+        <v>470500</v>
       </c>
       <c r="E49" s="3">
+        <v>476700</v>
+      </c>
+      <c r="F49" s="3">
         <v>9400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E52" s="3">
         <v>40500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>39900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>673400</v>
+        <v>687500</v>
       </c>
       <c r="E54" s="3">
-        <v>296300</v>
+        <v>673700</v>
       </c>
       <c r="F54" s="3">
-        <v>278100</v>
+        <v>296400</v>
       </c>
       <c r="G54" s="3">
-        <v>272500</v>
+        <v>278200</v>
       </c>
       <c r="H54" s="3">
-        <v>174100</v>
+        <v>272600</v>
       </c>
       <c r="I54" s="3">
-        <v>165800</v>
+        <v>174200</v>
       </c>
       <c r="J54" s="3">
+        <v>165900</v>
+      </c>
+      <c r="K54" s="3">
         <v>138500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>134800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2225,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17900</v>
       </c>
-      <c r="F57" s="3">
-        <v>5900</v>
-      </c>
       <c r="G57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E58" s="3">
         <v>6900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3200</v>
       </c>
       <c r="G58" s="3">
         <v>3200</v>
       </c>
       <c r="H58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2000</v>
       </c>
       <c r="L58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>169700</v>
+        <v>191600</v>
       </c>
       <c r="E59" s="3">
-        <v>144400</v>
+        <v>169800</v>
       </c>
       <c r="F59" s="3">
+        <v>144500</v>
+      </c>
+      <c r="G59" s="3">
         <v>137100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>132400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>124700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>123800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>108200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>107900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>110200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>180900</v>
+        <v>201400</v>
       </c>
       <c r="E60" s="3">
-        <v>166000</v>
+        <v>181000</v>
       </c>
       <c r="F60" s="3">
+        <v>166100</v>
+      </c>
+      <c r="G60" s="3">
         <v>146300</v>
       </c>
-      <c r="G60" s="3">
-        <v>140500</v>
-      </c>
       <c r="H60" s="3">
-        <v>132100</v>
+        <v>140600</v>
       </c>
       <c r="I60" s="3">
-        <v>131300</v>
+        <v>132200</v>
       </c>
       <c r="J60" s="3">
+        <v>131400</v>
+      </c>
+      <c r="K60" s="3">
         <v>116600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>114600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>350400</v>
+        <v>349300</v>
       </c>
       <c r="E61" s="3">
+        <v>350500</v>
+      </c>
+      <c r="F61" s="3">
         <v>11400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>119700</v>
+        <v>118300</v>
       </c>
       <c r="E62" s="3">
+        <v>119800</v>
+      </c>
+      <c r="F62" s="3">
         <v>85200</v>
       </c>
-      <c r="F62" s="3">
-        <v>85400</v>
-      </c>
       <c r="G62" s="3">
+        <v>85500</v>
+      </c>
+      <c r="H62" s="3">
         <v>86700</v>
       </c>
-      <c r="H62" s="3">
-        <v>83400</v>
-      </c>
       <c r="I62" s="3">
+        <v>83500</v>
+      </c>
+      <c r="J62" s="3">
         <v>78700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>67500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>651100</v>
+        <v>668900</v>
       </c>
       <c r="E66" s="3">
-        <v>262600</v>
+        <v>651300</v>
       </c>
       <c r="F66" s="3">
-        <v>244300</v>
+        <v>262700</v>
       </c>
       <c r="G66" s="3">
-        <v>240500</v>
+        <v>244400</v>
       </c>
       <c r="H66" s="3">
-        <v>225700</v>
+        <v>240600</v>
       </c>
       <c r="I66" s="3">
-        <v>220700</v>
+        <v>225800</v>
       </c>
       <c r="J66" s="3">
+        <v>220800</v>
+      </c>
+      <c r="K66" s="3">
         <v>195500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>194500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-172600</v>
+        <v>-182500</v>
       </c>
       <c r="E72" s="3">
-        <v>-159200</v>
+        <v>-172700</v>
       </c>
       <c r="F72" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-159100</v>
       </c>
-      <c r="G72" s="3">
-        <v>-156900</v>
-      </c>
       <c r="H72" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-157100</v>
       </c>
-      <c r="I72" s="3">
-        <v>-158800</v>
-      </c>
       <c r="J72" s="3">
+        <v>-158900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-160300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-162300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-161200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22300</v>
+        <v>18600</v>
       </c>
       <c r="E76" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F76" s="3">
         <v>33700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-51600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-54900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-57000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-59700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-62100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2842,31 +3040,34 @@
         <v>8200</v>
       </c>
       <c r="E83" s="3">
-        <v>5600</v>
+        <v>8200</v>
       </c>
       <c r="F83" s="3">
         <v>5600</v>
       </c>
       <c r="G83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H83" s="3">
         <v>5200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4500</v>
       </c>
       <c r="J83" s="3">
         <v>4500</v>
       </c>
       <c r="K83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L83" s="3">
         <v>4300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-435500</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-435700</v>
       </c>
       <c r="F94" s="3">
+        <v>100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>8200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,31 +3445,32 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-4200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-4000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-3200</v>
       </c>
       <c r="K96" s="3">
         <v>-3200</v>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>328600</v>
+        <v>-11000</v>
       </c>
       <c r="E100" s="3">
+        <v>328700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>77000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-107800</v>
+        <v>7300</v>
       </c>
       <c r="E102" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="F102" s="3">
         <v>9900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
-        <v>102300</v>
-      </c>
       <c r="H102" s="3">
+        <v>102400</v>
+      </c>
+      <c r="I102" s="3">
         <v>27500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>ABST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62600</v>
+        <v>67800</v>
       </c>
       <c r="E8" s="3">
-        <v>55700</v>
+        <v>64000</v>
       </c>
       <c r="F8" s="3">
-        <v>40500</v>
+        <v>57000</v>
       </c>
       <c r="G8" s="3">
-        <v>39100</v>
+        <v>41500</v>
       </c>
       <c r="H8" s="3">
-        <v>38100</v>
+        <v>40000</v>
       </c>
       <c r="I8" s="3">
-        <v>36300</v>
+        <v>39000</v>
       </c>
       <c r="J8" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K8" s="3">
         <v>34700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="E9" s="3">
-        <v>10900</v>
+        <v>12300</v>
       </c>
       <c r="F9" s="3">
-        <v>7000</v>
+        <v>11100</v>
       </c>
       <c r="G9" s="3">
-        <v>5000</v>
+        <v>7200</v>
       </c>
       <c r="H9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L9" s="3">
         <v>4300</v>
       </c>
-      <c r="I9" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50600</v>
+        <v>56000</v>
       </c>
       <c r="E10" s="3">
-        <v>44800</v>
+        <v>51800</v>
       </c>
       <c r="F10" s="3">
-        <v>33500</v>
+        <v>45900</v>
       </c>
       <c r="G10" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="H10" s="3">
-        <v>33800</v>
+        <v>35000</v>
       </c>
       <c r="I10" s="3">
-        <v>32300</v>
+        <v>34600</v>
       </c>
       <c r="J10" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K10" s="3">
         <v>30900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14300</v>
+        <v>16200</v>
       </c>
       <c r="E12" s="3">
-        <v>13100</v>
+        <v>14700</v>
       </c>
       <c r="F12" s="3">
-        <v>23300</v>
+        <v>13400</v>
       </c>
       <c r="G12" s="3">
-        <v>6700</v>
+        <v>23800</v>
       </c>
       <c r="H12" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="I12" s="3">
-        <v>6500</v>
+        <v>7600</v>
       </c>
       <c r="J12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K12" s="3">
         <v>6900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>65900</v>
+        <v>70000</v>
       </c>
       <c r="E17" s="3">
-        <v>61900</v>
+        <v>67400</v>
       </c>
       <c r="F17" s="3">
-        <v>46700</v>
+        <v>63400</v>
       </c>
       <c r="G17" s="3">
-        <v>35000</v>
+        <v>47800</v>
       </c>
       <c r="H17" s="3">
-        <v>34100</v>
+        <v>35800</v>
       </c>
       <c r="I17" s="3">
-        <v>31000</v>
+        <v>34900</v>
       </c>
       <c r="J17" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K17" s="3">
         <v>30100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-3300</v>
+        <v>-2200</v>
       </c>
       <c r="E18" s="3">
-        <v>-6200</v>
+        <v>-3400</v>
       </c>
       <c r="F18" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="G18" s="3">
-        <v>4200</v>
+        <v>-6300</v>
       </c>
       <c r="H18" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="I18" s="3">
-        <v>5400</v>
+        <v>4100</v>
       </c>
       <c r="J18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K18" s="3">
         <v>4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1076,78 +1109,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-200</v>
       </c>
       <c r="G20" s="3">
         <v>-200</v>
       </c>
       <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H21" s="3">
         <v>9700</v>
       </c>
-      <c r="E21" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>8700</v>
-      </c>
       <c r="I21" s="3">
-        <v>10100</v>
+        <v>8900</v>
       </c>
       <c r="J21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K21" s="3">
         <v>9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,10 +1195,10 @@
         <v>6600</v>
       </c>
       <c r="E22" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>6700</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1173,86 +1213,95 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-10200</v>
+        <v>-9200</v>
       </c>
       <c r="E23" s="3">
-        <v>-12700</v>
+        <v>-10400</v>
       </c>
       <c r="F23" s="3">
-        <v>-6500</v>
+        <v>-13000</v>
       </c>
       <c r="G23" s="3">
-        <v>3800</v>
+        <v>-6700</v>
       </c>
       <c r="H23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="I23" s="3">
-        <v>5000</v>
-      </c>
       <c r="J23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-3700</v>
+        <v>-800</v>
       </c>
       <c r="E24" s="3">
-        <v>-3100</v>
+        <v>-3800</v>
       </c>
       <c r="F24" s="3">
-        <v>-2700</v>
+        <v>-3200</v>
       </c>
       <c r="G24" s="3">
-        <v>900</v>
+        <v>-2800</v>
       </c>
       <c r="H24" s="3">
         <v>900</v>
       </c>
       <c r="I24" s="3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="J24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1500</v>
       </c>
       <c r="M24" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-6500</v>
+        <v>-8400</v>
       </c>
       <c r="E26" s="3">
-        <v>-9600</v>
+        <v>-6700</v>
       </c>
       <c r="F26" s="3">
-        <v>-3800</v>
+        <v>-9900</v>
       </c>
       <c r="G26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-6500</v>
+        <v>-8400</v>
       </c>
       <c r="E27" s="3">
-        <v>-9600</v>
+        <v>-6700</v>
       </c>
       <c r="F27" s="3">
-        <v>-3800</v>
+        <v>-9900</v>
       </c>
       <c r="G27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>200</v>
       </c>
       <c r="G32" s="3">
         <v>200</v>
       </c>
       <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6500</v>
+        <v>-8400</v>
       </c>
       <c r="E33" s="3">
-        <v>-9600</v>
+        <v>-6700</v>
       </c>
       <c r="F33" s="3">
-        <v>-3800</v>
+        <v>-9900</v>
       </c>
       <c r="G33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6500</v>
+        <v>-8400</v>
       </c>
       <c r="E35" s="3">
-        <v>-9600</v>
+        <v>-6700</v>
       </c>
       <c r="F35" s="3">
-        <v>-3800</v>
+        <v>-9900</v>
       </c>
       <c r="G35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78000</v>
+        <v>89600</v>
       </c>
       <c r="E41" s="3">
-        <v>70700</v>
+        <v>79900</v>
       </c>
       <c r="F41" s="3">
-        <v>178600</v>
+        <v>72400</v>
       </c>
       <c r="G41" s="3">
-        <v>168700</v>
+        <v>182800</v>
       </c>
       <c r="H41" s="3">
-        <v>167700</v>
+        <v>172700</v>
       </c>
       <c r="I41" s="3">
-        <v>65400</v>
+        <v>171700</v>
       </c>
       <c r="J41" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K41" s="3">
         <v>37900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +1843,7 @@
         <v>500</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1762,22 +1852,25 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K42" s="3">
         <v>21700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1785,34 +1878,37 @@
         <v>53500</v>
       </c>
       <c r="E43" s="3">
-        <v>43800</v>
+        <v>54800</v>
       </c>
       <c r="F43" s="3">
-        <v>31200</v>
+        <v>44800</v>
       </c>
       <c r="G43" s="3">
-        <v>33400</v>
+        <v>31900</v>
       </c>
       <c r="H43" s="3">
-        <v>29100</v>
+        <v>34200</v>
       </c>
       <c r="I43" s="3">
-        <v>30700</v>
+        <v>29800</v>
       </c>
       <c r="J43" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K43" s="3">
         <v>37100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,78 +1942,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20200</v>
+        <v>23300</v>
       </c>
       <c r="E45" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>19600</v>
+      </c>
+      <c r="G45" s="3">
         <v>19100</v>
       </c>
-      <c r="F45" s="3">
-        <v>18700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>16100</v>
-      </c>
       <c r="H45" s="3">
-        <v>17800</v>
+        <v>16500</v>
       </c>
       <c r="I45" s="3">
-        <v>15300</v>
+        <v>18200</v>
       </c>
       <c r="J45" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K45" s="3">
         <v>13300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>152300</v>
+        <v>166900</v>
       </c>
       <c r="E46" s="3">
-        <v>134100</v>
+        <v>155900</v>
       </c>
       <c r="F46" s="3">
-        <v>228500</v>
+        <v>137300</v>
       </c>
       <c r="G46" s="3">
-        <v>218200</v>
+        <v>233900</v>
       </c>
       <c r="H46" s="3">
-        <v>214600</v>
+        <v>223300</v>
       </c>
       <c r="I46" s="3">
-        <v>119800</v>
+        <v>219700</v>
       </c>
       <c r="J46" s="3">
+        <v>122600</v>
+      </c>
+      <c r="K46" s="3">
         <v>109900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>83200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,78 +2056,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21500</v>
+        <v>19400</v>
       </c>
       <c r="E48" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="F48" s="3">
-        <v>18600</v>
+        <v>22900</v>
       </c>
       <c r="G48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I48" s="3">
         <v>20600</v>
       </c>
-      <c r="H48" s="3">
-        <v>20100</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K48" s="3">
+        <v>18800</v>
+      </c>
+      <c r="L48" s="3">
+        <v>19600</v>
+      </c>
+      <c r="M48" s="3">
         <v>17600</v>
       </c>
-      <c r="J48" s="3">
-        <v>18800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>19600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>17600</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>470500</v>
+        <v>474900</v>
       </c>
       <c r="E49" s="3">
-        <v>476700</v>
+        <v>481600</v>
       </c>
       <c r="F49" s="3">
-        <v>9400</v>
+        <v>487900</v>
       </c>
       <c r="G49" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="H49" s="3">
         <v>9400</v>
       </c>
       <c r="I49" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="J49" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K49" s="3">
         <v>8800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43200</v>
+        <v>47600</v>
       </c>
       <c r="E52" s="3">
-        <v>40500</v>
+        <v>44300</v>
       </c>
       <c r="F52" s="3">
-        <v>39900</v>
+        <v>41500</v>
       </c>
       <c r="G52" s="3">
-        <v>30300</v>
+        <v>40900</v>
       </c>
       <c r="H52" s="3">
-        <v>28500</v>
+        <v>31000</v>
       </c>
       <c r="I52" s="3">
-        <v>27700</v>
+        <v>29200</v>
       </c>
       <c r="J52" s="3">
         <v>28400</v>
       </c>
       <c r="K52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="L52" s="3">
         <v>28600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>687500</v>
+        <v>708800</v>
       </c>
       <c r="E54" s="3">
-        <v>673700</v>
+        <v>703800</v>
       </c>
       <c r="F54" s="3">
-        <v>296400</v>
+        <v>689600</v>
       </c>
       <c r="G54" s="3">
-        <v>278200</v>
+        <v>303400</v>
       </c>
       <c r="H54" s="3">
-        <v>272600</v>
+        <v>284800</v>
       </c>
       <c r="I54" s="3">
-        <v>174200</v>
+        <v>279100</v>
       </c>
       <c r="J54" s="3">
+        <v>178300</v>
+      </c>
+      <c r="K54" s="3">
         <v>165900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>138500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>134800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,218 +2356,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>4300</v>
+        <v>2400</v>
       </c>
       <c r="F57" s="3">
-        <v>17900</v>
+        <v>4400</v>
       </c>
       <c r="G57" s="3">
-        <v>6000</v>
+        <v>18300</v>
       </c>
       <c r="H57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>6600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>4800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E58" s="3">
-        <v>6900</v>
+        <v>7600</v>
       </c>
       <c r="F58" s="3">
-        <v>3700</v>
+        <v>7000</v>
       </c>
       <c r="G58" s="3">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="H58" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I58" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="J58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2000</v>
       </c>
       <c r="M58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>191600</v>
+        <v>208100</v>
       </c>
       <c r="E59" s="3">
-        <v>169800</v>
+        <v>196100</v>
       </c>
       <c r="F59" s="3">
-        <v>144500</v>
+        <v>173800</v>
       </c>
       <c r="G59" s="3">
-        <v>137100</v>
+        <v>147900</v>
       </c>
       <c r="H59" s="3">
-        <v>132400</v>
+        <v>140400</v>
       </c>
       <c r="I59" s="3">
-        <v>124700</v>
+        <v>135600</v>
       </c>
       <c r="J59" s="3">
+        <v>127700</v>
+      </c>
+      <c r="K59" s="3">
         <v>123800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>108200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>107900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>110200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>201400</v>
+        <v>218600</v>
       </c>
       <c r="E60" s="3">
-        <v>181000</v>
+        <v>206100</v>
       </c>
       <c r="F60" s="3">
-        <v>166100</v>
+        <v>185300</v>
       </c>
       <c r="G60" s="3">
-        <v>146300</v>
+        <v>170000</v>
       </c>
       <c r="H60" s="3">
-        <v>140600</v>
+        <v>149800</v>
       </c>
       <c r="I60" s="3">
-        <v>132200</v>
+        <v>143900</v>
       </c>
       <c r="J60" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K60" s="3">
         <v>131400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>116600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>114600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>349300</v>
+        <v>355500</v>
       </c>
       <c r="E61" s="3">
-        <v>350500</v>
+        <v>357500</v>
       </c>
       <c r="F61" s="3">
-        <v>11400</v>
+        <v>358800</v>
       </c>
       <c r="G61" s="3">
-        <v>12600</v>
+        <v>11700</v>
       </c>
       <c r="H61" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="I61" s="3">
-        <v>10100</v>
+        <v>13600</v>
       </c>
       <c r="J61" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K61" s="3">
         <v>10700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>118300</v>
+        <v>124200</v>
       </c>
       <c r="E62" s="3">
-        <v>119800</v>
+        <v>121000</v>
       </c>
       <c r="F62" s="3">
-        <v>85200</v>
+        <v>122600</v>
       </c>
       <c r="G62" s="3">
-        <v>85500</v>
+        <v>87200</v>
       </c>
       <c r="H62" s="3">
-        <v>86700</v>
+        <v>87500</v>
       </c>
       <c r="I62" s="3">
-        <v>83500</v>
+        <v>88800</v>
       </c>
       <c r="J62" s="3">
+        <v>85400</v>
+      </c>
+      <c r="K62" s="3">
         <v>78700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>67500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>70400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>668900</v>
+        <v>698300</v>
       </c>
       <c r="E66" s="3">
-        <v>651300</v>
+        <v>684700</v>
       </c>
       <c r="F66" s="3">
-        <v>262700</v>
+        <v>666700</v>
       </c>
       <c r="G66" s="3">
-        <v>244400</v>
+        <v>268900</v>
       </c>
       <c r="H66" s="3">
-        <v>240600</v>
+        <v>250200</v>
       </c>
       <c r="I66" s="3">
-        <v>225800</v>
+        <v>246300</v>
       </c>
       <c r="J66" s="3">
+        <v>231100</v>
+      </c>
+      <c r="K66" s="3">
         <v>220800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>194500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-182500</v>
+        <v>-198600</v>
       </c>
       <c r="E72" s="3">
-        <v>-172700</v>
+        <v>-186800</v>
       </c>
       <c r="F72" s="3">
-        <v>-159300</v>
+        <v>-176800</v>
       </c>
       <c r="G72" s="3">
-        <v>-159100</v>
+        <v>-163100</v>
       </c>
       <c r="H72" s="3">
-        <v>-157000</v>
+        <v>-162900</v>
       </c>
       <c r="I72" s="3">
-        <v>-157100</v>
+        <v>-160700</v>
       </c>
       <c r="J72" s="3">
+        <v>-160800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-158900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-160300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-162300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-161200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18600</v>
+        <v>10500</v>
       </c>
       <c r="E76" s="3">
-        <v>22400</v>
+        <v>19000</v>
       </c>
       <c r="F76" s="3">
-        <v>33700</v>
+        <v>22900</v>
       </c>
       <c r="G76" s="3">
-        <v>33800</v>
+        <v>34500</v>
       </c>
       <c r="H76" s="3">
-        <v>32000</v>
+        <v>34600</v>
       </c>
       <c r="I76" s="3">
-        <v>-51600</v>
+        <v>32800</v>
       </c>
       <c r="J76" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-54900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-57000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-59700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-62100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6500</v>
+        <v>-8400</v>
       </c>
       <c r="E81" s="3">
-        <v>-9600</v>
+        <v>-6700</v>
       </c>
       <c r="F81" s="3">
-        <v>-3800</v>
+        <v>-9900</v>
       </c>
       <c r="G81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="E83" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="F83" s="3">
-        <v>5600</v>
+        <v>8400</v>
       </c>
       <c r="G83" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H83" s="3">
-        <v>5200</v>
+        <v>5700</v>
       </c>
       <c r="I83" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="J83" s="3">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="K83" s="3">
         <v>4500</v>
       </c>
       <c r="L83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M83" s="3">
         <v>4300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18800</v>
+        <v>22200</v>
       </c>
       <c r="E89" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
-        <v>14600</v>
-      </c>
       <c r="G89" s="3">
-        <v>9300</v>
+        <v>14900</v>
       </c>
       <c r="H89" s="3">
-        <v>17100</v>
+        <v>9500</v>
       </c>
       <c r="I89" s="3">
-        <v>18700</v>
+        <v>17500</v>
       </c>
       <c r="J89" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K89" s="3">
         <v>14700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
-        <v>-435700</v>
+        <v>-600</v>
       </c>
       <c r="F94" s="3">
+        <v>-446000</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
-        <v>8200</v>
-      </c>
       <c r="I94" s="3">
-        <v>12100</v>
+        <v>8400</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3455,25 +3689,25 @@
         <v>-4100</v>
       </c>
       <c r="E96" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="F96" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="G96" s="3">
-        <v>-4000</v>
+        <v>-4300</v>
       </c>
       <c r="H96" s="3">
-        <v>-3800</v>
+        <v>-4100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3300</v>
+        <v>-3900</v>
       </c>
       <c r="J96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-3200</v>
       </c>
       <c r="L96" s="3">
         <v>-3200</v>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11000</v>
+        <v>-11600</v>
       </c>
       <c r="E100" s="3">
-        <v>328700</v>
+        <v>-11200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4700</v>
+        <v>336500</v>
       </c>
       <c r="G100" s="3">
-        <v>-6200</v>
+        <v>-4800</v>
       </c>
       <c r="H100" s="3">
-        <v>77000</v>
+        <v>-6300</v>
       </c>
       <c r="I100" s="3">
-        <v>-3400</v>
+        <v>78800</v>
       </c>
       <c r="J100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7300</v>
+        <v>9800</v>
       </c>
       <c r="E102" s="3">
-        <v>-107900</v>
+        <v>7500</v>
       </c>
       <c r="F102" s="3">
-        <v>9900</v>
+        <v>-110400</v>
       </c>
       <c r="G102" s="3">
-        <v>900</v>
+        <v>10200</v>
       </c>
       <c r="H102" s="3">
-        <v>102400</v>
+        <v>1000</v>
       </c>
       <c r="I102" s="3">
-        <v>27500</v>
+        <v>104800</v>
       </c>
       <c r="J102" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K102" s="3">
         <v>11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ABST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67800</v>
+        <v>67900</v>
       </c>
       <c r="E8" s="3">
-        <v>64000</v>
+        <v>67200</v>
       </c>
       <c r="F8" s="3">
-        <v>57000</v>
+        <v>63500</v>
       </c>
       <c r="G8" s="3">
-        <v>41500</v>
+        <v>56500</v>
       </c>
       <c r="H8" s="3">
-        <v>40000</v>
+        <v>41100</v>
       </c>
       <c r="I8" s="3">
-        <v>39000</v>
+        <v>39700</v>
       </c>
       <c r="J8" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K8" s="3">
         <v>37200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11900</v>
+        <v>12600</v>
       </c>
       <c r="E9" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="F9" s="3">
-        <v>11100</v>
+        <v>12200</v>
       </c>
       <c r="G9" s="3">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="H9" s="3">
-        <v>5100</v>
+        <v>7100</v>
       </c>
       <c r="I9" s="3">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>56000</v>
+        <v>55300</v>
       </c>
       <c r="E10" s="3">
-        <v>51800</v>
+        <v>55400</v>
       </c>
       <c r="F10" s="3">
-        <v>45900</v>
+        <v>51300</v>
       </c>
       <c r="G10" s="3">
-        <v>34300</v>
+        <v>45500</v>
       </c>
       <c r="H10" s="3">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="I10" s="3">
         <v>34600</v>
       </c>
       <c r="J10" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K10" s="3">
         <v>33100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16200</v>
+        <v>14000</v>
       </c>
       <c r="E12" s="3">
-        <v>14700</v>
+        <v>16100</v>
       </c>
       <c r="F12" s="3">
-        <v>13400</v>
+        <v>14500</v>
       </c>
       <c r="G12" s="3">
-        <v>23800</v>
+        <v>13300</v>
       </c>
       <c r="H12" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L12" s="3">
         <v>6900</v>
       </c>
-      <c r="I12" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6900</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>70000</v>
+        <v>65300</v>
       </c>
       <c r="E17" s="3">
-        <v>67400</v>
+        <v>69300</v>
       </c>
       <c r="F17" s="3">
-        <v>63400</v>
+        <v>66800</v>
       </c>
       <c r="G17" s="3">
-        <v>47800</v>
+        <v>62800</v>
       </c>
       <c r="H17" s="3">
-        <v>35800</v>
+        <v>47400</v>
       </c>
       <c r="I17" s="3">
-        <v>34900</v>
+        <v>35400</v>
       </c>
       <c r="J17" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K17" s="3">
         <v>31700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-2200</v>
+        <v>2600</v>
       </c>
       <c r="E18" s="3">
-        <v>-3400</v>
+        <v>-2100</v>
       </c>
       <c r="F18" s="3">
-        <v>-6400</v>
+        <v>-3300</v>
       </c>
       <c r="G18" s="3">
         <v>-6300</v>
       </c>
       <c r="H18" s="3">
-        <v>4300</v>
+        <v>-6300</v>
       </c>
       <c r="I18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="J18" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,101 +1143,108 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-200</v>
       </c>
       <c r="H20" s="3">
         <v>-200</v>
       </c>
       <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10100</v>
+        <v>14200</v>
       </c>
       <c r="E21" s="3">
         <v>10000</v>
       </c>
       <c r="F21" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G21" s="3">
         <v>6600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9700</v>
       </c>
-      <c r="I21" s="3">
-        <v>8900</v>
-      </c>
       <c r="J21" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K21" s="3">
         <v>10300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E22" s="3">
         <v>6600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6800</v>
       </c>
       <c r="F22" s="3">
         <v>6700</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>6700</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1216,92 +1256,101 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-10400</v>
-      </c>
       <c r="F23" s="3">
-        <v>-13000</v>
+        <v>-10300</v>
       </c>
       <c r="G23" s="3">
-        <v>-6700</v>
+        <v>-12900</v>
       </c>
       <c r="H23" s="3">
-        <v>3900</v>
+        <v>-6600</v>
       </c>
       <c r="I23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-3800</v>
-      </c>
       <c r="F24" s="3">
-        <v>-3200</v>
+        <v>-3700</v>
       </c>
       <c r="G24" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="H24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1500</v>
       </c>
       <c r="N24" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-8400</v>
+        <v>-6900</v>
       </c>
       <c r="E26" s="3">
-        <v>-6700</v>
+        <v>-8300</v>
       </c>
       <c r="F26" s="3">
-        <v>-9900</v>
+        <v>-6600</v>
       </c>
       <c r="G26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-8400</v>
+        <v>-6900</v>
       </c>
       <c r="E27" s="3">
-        <v>-6700</v>
+        <v>-8300</v>
       </c>
       <c r="F27" s="3">
-        <v>-9900</v>
+        <v>-6600</v>
       </c>
       <c r="G27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>200</v>
       </c>
       <c r="H32" s="3">
         <v>200</v>
       </c>
       <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8400</v>
+        <v>-6900</v>
       </c>
       <c r="E33" s="3">
-        <v>-6700</v>
+        <v>-8300</v>
       </c>
       <c r="F33" s="3">
-        <v>-9900</v>
+        <v>-6600</v>
       </c>
       <c r="G33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8400</v>
+        <v>-6900</v>
       </c>
       <c r="E35" s="3">
-        <v>-6700</v>
+        <v>-8300</v>
       </c>
       <c r="F35" s="3">
-        <v>-9900</v>
+        <v>-6600</v>
       </c>
       <c r="G35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89600</v>
+        <v>82300</v>
       </c>
       <c r="E41" s="3">
-        <v>79900</v>
+        <v>88800</v>
       </c>
       <c r="F41" s="3">
-        <v>72400</v>
+        <v>79100</v>
       </c>
       <c r="G41" s="3">
-        <v>182800</v>
+        <v>71700</v>
       </c>
       <c r="H41" s="3">
-        <v>172700</v>
+        <v>181200</v>
       </c>
       <c r="I41" s="3">
-        <v>171700</v>
+        <v>171100</v>
       </c>
       <c r="J41" s="3">
+        <v>170100</v>
+      </c>
+      <c r="K41" s="3">
         <v>66900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1846,7 +1936,7 @@
         <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1855,60 +1945,66 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>8600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>24700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>53500</v>
+        <v>69500</v>
       </c>
       <c r="E43" s="3">
-        <v>54800</v>
+        <v>53000</v>
       </c>
       <c r="F43" s="3">
-        <v>44800</v>
+        <v>54300</v>
       </c>
       <c r="G43" s="3">
-        <v>31900</v>
+        <v>44400</v>
       </c>
       <c r="H43" s="3">
-        <v>34200</v>
+        <v>31600</v>
       </c>
       <c r="I43" s="3">
-        <v>29800</v>
+        <v>33900</v>
       </c>
       <c r="J43" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K43" s="3">
         <v>31400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,84 +2041,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23300</v>
+        <v>24000</v>
       </c>
       <c r="E45" s="3">
-        <v>20700</v>
+        <v>23100</v>
       </c>
       <c r="F45" s="3">
-        <v>19600</v>
+        <v>20500</v>
       </c>
       <c r="G45" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="H45" s="3">
-        <v>16500</v>
+        <v>19000</v>
       </c>
       <c r="I45" s="3">
-        <v>18200</v>
+        <v>16300</v>
       </c>
       <c r="J45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K45" s="3">
         <v>15700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>166900</v>
+        <v>176300</v>
       </c>
       <c r="E46" s="3">
-        <v>155900</v>
+        <v>165400</v>
       </c>
       <c r="F46" s="3">
-        <v>137300</v>
+        <v>154400</v>
       </c>
       <c r="G46" s="3">
-        <v>233900</v>
+        <v>136000</v>
       </c>
       <c r="H46" s="3">
-        <v>223300</v>
+        <v>231800</v>
       </c>
       <c r="I46" s="3">
-        <v>219700</v>
+        <v>221300</v>
       </c>
       <c r="J46" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K46" s="3">
         <v>122600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>109900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>83200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,84 +2164,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="E48" s="3">
-        <v>22000</v>
+        <v>19300</v>
       </c>
       <c r="F48" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="G48" s="3">
-        <v>19000</v>
+        <v>22700</v>
       </c>
       <c r="H48" s="3">
-        <v>21000</v>
+        <v>18900</v>
       </c>
       <c r="I48" s="3">
-        <v>20600</v>
+        <v>20800</v>
       </c>
       <c r="J48" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K48" s="3">
         <v>18000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>474900</v>
+        <v>471100</v>
       </c>
       <c r="E49" s="3">
-        <v>481600</v>
+        <v>470500</v>
       </c>
       <c r="F49" s="3">
-        <v>487900</v>
+        <v>477200</v>
       </c>
       <c r="G49" s="3">
-        <v>9600</v>
+        <v>483400</v>
       </c>
       <c r="H49" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="I49" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="J49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K49" s="3">
         <v>9300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47600</v>
+        <v>51800</v>
       </c>
       <c r="E52" s="3">
-        <v>44300</v>
+        <v>47200</v>
       </c>
       <c r="F52" s="3">
-        <v>41500</v>
+        <v>43800</v>
       </c>
       <c r="G52" s="3">
-        <v>40900</v>
+        <v>41100</v>
       </c>
       <c r="H52" s="3">
-        <v>31000</v>
+        <v>40500</v>
       </c>
       <c r="I52" s="3">
-        <v>29200</v>
+        <v>30700</v>
       </c>
       <c r="J52" s="3">
-        <v>28400</v>
+        <v>28900</v>
       </c>
       <c r="K52" s="3">
         <v>28400</v>
       </c>
       <c r="L52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="M52" s="3">
         <v>28600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>708800</v>
+        <v>718100</v>
       </c>
       <c r="E54" s="3">
-        <v>703800</v>
+        <v>702300</v>
       </c>
       <c r="F54" s="3">
-        <v>689600</v>
+        <v>697300</v>
       </c>
       <c r="G54" s="3">
-        <v>303400</v>
+        <v>683200</v>
       </c>
       <c r="H54" s="3">
-        <v>284800</v>
+        <v>300600</v>
       </c>
       <c r="I54" s="3">
-        <v>279100</v>
+        <v>282200</v>
       </c>
       <c r="J54" s="3">
+        <v>276500</v>
+      </c>
+      <c r="K54" s="3">
         <v>178300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>165900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>134800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
-        <v>18300</v>
-      </c>
       <c r="H57" s="3">
-        <v>6100</v>
+        <v>18200</v>
       </c>
       <c r="I57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,189 +2538,204 @@
         <v>7400</v>
       </c>
       <c r="E58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F58" s="3">
         <v>7600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3300</v>
       </c>
       <c r="I58" s="3">
         <v>3300</v>
       </c>
       <c r="J58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2000</v>
       </c>
       <c r="N58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>208100</v>
+        <v>215500</v>
       </c>
       <c r="E59" s="3">
-        <v>196100</v>
+        <v>206200</v>
       </c>
       <c r="F59" s="3">
-        <v>173800</v>
+        <v>194300</v>
       </c>
       <c r="G59" s="3">
-        <v>147900</v>
+        <v>172200</v>
       </c>
       <c r="H59" s="3">
-        <v>140400</v>
+        <v>146500</v>
       </c>
       <c r="I59" s="3">
-        <v>135600</v>
+        <v>139100</v>
       </c>
       <c r="J59" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K59" s="3">
         <v>127700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>123800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>108200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>107900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>110200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>218600</v>
+        <v>225300</v>
       </c>
       <c r="E60" s="3">
-        <v>206100</v>
+        <v>216600</v>
       </c>
       <c r="F60" s="3">
-        <v>185300</v>
+        <v>204200</v>
       </c>
       <c r="G60" s="3">
-        <v>170000</v>
+        <v>183600</v>
       </c>
       <c r="H60" s="3">
-        <v>149800</v>
+        <v>168500</v>
       </c>
       <c r="I60" s="3">
-        <v>143900</v>
+        <v>148400</v>
       </c>
       <c r="J60" s="3">
+        <v>142600</v>
+      </c>
+      <c r="K60" s="3">
         <v>135300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>131400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>116600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>114600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>350800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>352200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>354200</v>
+      </c>
+      <c r="G61" s="3">
         <v>355500</v>
       </c>
-      <c r="E61" s="3">
-        <v>357500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>358800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>11700</v>
-      </c>
       <c r="H61" s="3">
-        <v>12900</v>
+        <v>11600</v>
       </c>
       <c r="I61" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
       <c r="J61" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K61" s="3">
         <v>10400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>124200</v>
+        <v>137800</v>
       </c>
       <c r="E62" s="3">
-        <v>121000</v>
+        <v>123100</v>
       </c>
       <c r="F62" s="3">
-        <v>122600</v>
+        <v>119900</v>
       </c>
       <c r="G62" s="3">
-        <v>87200</v>
+        <v>121500</v>
       </c>
       <c r="H62" s="3">
-        <v>87500</v>
+        <v>86400</v>
       </c>
       <c r="I62" s="3">
-        <v>88800</v>
+        <v>86700</v>
       </c>
       <c r="J62" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K62" s="3">
         <v>85400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>78700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>67500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>698300</v>
+        <v>713900</v>
       </c>
       <c r="E66" s="3">
-        <v>684700</v>
+        <v>691900</v>
       </c>
       <c r="F66" s="3">
-        <v>666700</v>
+        <v>678400</v>
       </c>
       <c r="G66" s="3">
-        <v>268900</v>
+        <v>660600</v>
       </c>
       <c r="H66" s="3">
-        <v>250200</v>
+        <v>266500</v>
       </c>
       <c r="I66" s="3">
-        <v>246300</v>
+        <v>247900</v>
       </c>
       <c r="J66" s="3">
+        <v>244000</v>
+      </c>
+      <c r="K66" s="3">
         <v>231100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>220800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>195500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>194500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-198600</v>
+        <v>-203300</v>
       </c>
       <c r="E72" s="3">
-        <v>-186800</v>
+        <v>-196800</v>
       </c>
       <c r="F72" s="3">
-        <v>-176800</v>
+        <v>-185100</v>
       </c>
       <c r="G72" s="3">
-        <v>-163100</v>
+        <v>-175100</v>
       </c>
       <c r="H72" s="3">
-        <v>-162900</v>
+        <v>-161600</v>
       </c>
       <c r="I72" s="3">
-        <v>-160700</v>
+        <v>-161400</v>
       </c>
       <c r="J72" s="3">
+        <v>-159200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-160800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-158900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-160300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-162300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-161200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10500</v>
+        <v>4100</v>
       </c>
       <c r="E76" s="3">
-        <v>19000</v>
+        <v>10400</v>
       </c>
       <c r="F76" s="3">
-        <v>22900</v>
+        <v>18900</v>
       </c>
       <c r="G76" s="3">
-        <v>34500</v>
+        <v>22700</v>
       </c>
       <c r="H76" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="I76" s="3">
-        <v>32800</v>
+        <v>34300</v>
       </c>
       <c r="J76" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-52800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-54900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-57000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-59700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-62100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8400</v>
+        <v>-6900</v>
       </c>
       <c r="E81" s="3">
-        <v>-6700</v>
+        <v>-8300</v>
       </c>
       <c r="F81" s="3">
-        <v>-9900</v>
+        <v>-6600</v>
       </c>
       <c r="G81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3239,37 +3438,40 @@
         <v>8000</v>
       </c>
       <c r="E83" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="F83" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="G83" s="3">
-        <v>5700</v>
+        <v>8300</v>
       </c>
       <c r="H83" s="3">
         <v>5700</v>
       </c>
       <c r="I83" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="J83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K83" s="3">
         <v>5100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4500</v>
       </c>
       <c r="L83" s="3">
         <v>4500</v>
       </c>
       <c r="M83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N83" s="3">
         <v>4300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22200</v>
+        <v>11200</v>
       </c>
       <c r="E89" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K89" s="3">
         <v>19200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>14900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>19200</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-600</v>
-      </c>
       <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-600</v>
-      </c>
       <c r="F94" s="3">
-        <v>-446000</v>
+        <v>-500</v>
       </c>
       <c r="G94" s="3">
+        <v>-441900</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2200</v>
       </c>
-      <c r="I94" s="3">
-        <v>8400</v>
-      </c>
       <c r="J94" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K94" s="3">
         <v>12400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,37 +3913,38 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-4200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-4100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-4300</v>
-      </c>
       <c r="H96" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-4100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-3200</v>
       </c>
       <c r="M96" s="3">
         <v>-3200</v>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11600</v>
+        <v>-16200</v>
       </c>
       <c r="E100" s="3">
-        <v>-11200</v>
+        <v>-11500</v>
       </c>
       <c r="F100" s="3">
-        <v>336500</v>
+        <v>-11100</v>
       </c>
       <c r="G100" s="3">
-        <v>-4800</v>
+        <v>333400</v>
       </c>
       <c r="H100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-6300</v>
       </c>
-      <c r="I100" s="3">
-        <v>78800</v>
-      </c>
       <c r="J100" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9800</v>
+        <v>-6500</v>
       </c>
       <c r="E102" s="3">
-        <v>7500</v>
+        <v>9700</v>
       </c>
       <c r="F102" s="3">
-        <v>-110400</v>
+        <v>7400</v>
       </c>
       <c r="G102" s="3">
-        <v>10200</v>
+        <v>-109400</v>
       </c>
       <c r="H102" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
-        <v>104800</v>
-      </c>
       <c r="J102" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K102" s="3">
         <v>28100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>ABST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67900</v>
+        <v>71400</v>
       </c>
       <c r="E8" s="3">
-        <v>67200</v>
+        <v>69900</v>
       </c>
       <c r="F8" s="3">
-        <v>63500</v>
+        <v>69300</v>
       </c>
       <c r="G8" s="3">
-        <v>56500</v>
+        <v>65400</v>
       </c>
       <c r="H8" s="3">
-        <v>41100</v>
+        <v>58200</v>
       </c>
       <c r="I8" s="3">
-        <v>39700</v>
+        <v>42400</v>
       </c>
       <c r="J8" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K8" s="3">
         <v>38600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12600</v>
+        <v>13700</v>
       </c>
       <c r="E9" s="3">
-        <v>11800</v>
+        <v>13000</v>
       </c>
       <c r="F9" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="G9" s="3">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="H9" s="3">
-        <v>7100</v>
+        <v>11300</v>
       </c>
       <c r="I9" s="3">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="J9" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>55300</v>
+        <v>57700</v>
       </c>
       <c r="E10" s="3">
-        <v>55400</v>
+        <v>56900</v>
       </c>
       <c r="F10" s="3">
-        <v>51300</v>
+        <v>57100</v>
       </c>
       <c r="G10" s="3">
-        <v>45500</v>
+        <v>52900</v>
       </c>
       <c r="H10" s="3">
-        <v>34000</v>
+        <v>46900</v>
       </c>
       <c r="I10" s="3">
-        <v>34600</v>
+        <v>35000</v>
       </c>
       <c r="J10" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K10" s="3">
         <v>34300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14000</v>
+        <v>18200</v>
       </c>
       <c r="E12" s="3">
-        <v>16100</v>
+        <v>14400</v>
       </c>
       <c r="F12" s="3">
-        <v>14500</v>
+        <v>16600</v>
       </c>
       <c r="G12" s="3">
-        <v>13300</v>
+        <v>15000</v>
       </c>
       <c r="H12" s="3">
-        <v>23600</v>
+        <v>13700</v>
       </c>
       <c r="I12" s="3">
-        <v>6800</v>
+        <v>24300</v>
       </c>
       <c r="J12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>65300</v>
+        <v>79200</v>
       </c>
       <c r="E17" s="3">
-        <v>69300</v>
+        <v>67300</v>
       </c>
       <c r="F17" s="3">
-        <v>66800</v>
+        <v>71500</v>
       </c>
       <c r="G17" s="3">
-        <v>62800</v>
+        <v>68800</v>
       </c>
       <c r="H17" s="3">
-        <v>47400</v>
+        <v>64700</v>
       </c>
       <c r="I17" s="3">
-        <v>35400</v>
+        <v>48800</v>
       </c>
       <c r="J17" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K17" s="3">
         <v>34600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E18" s="3">
         <v>2600</v>
       </c>
-      <c r="E18" s="3">
-        <v>-2100</v>
-      </c>
       <c r="F18" s="3">
-        <v>-3300</v>
+        <v>-2200</v>
       </c>
       <c r="G18" s="3">
-        <v>-6300</v>
+        <v>-3400</v>
       </c>
       <c r="H18" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="I18" s="3">
-        <v>4200</v>
+        <v>-6500</v>
       </c>
       <c r="J18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K18" s="3">
         <v>4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1153,98 +1187,104 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-200</v>
       </c>
       <c r="I20" s="3">
         <v>-200</v>
       </c>
       <c r="J20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14200</v>
+        <v>4500</v>
       </c>
       <c r="E21" s="3">
-        <v>10000</v>
+        <v>14600</v>
       </c>
       <c r="F21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J21" s="3">
         <v>9900</v>
       </c>
-      <c r="G21" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F22" s="3">
         <v>6800</v>
       </c>
-      <c r="E22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6700</v>
-      </c>
       <c r="G22" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1259,98 +1299,107 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-4000</v>
+        <v>-15800</v>
       </c>
       <c r="E23" s="3">
-        <v>-9200</v>
+        <v>-4100</v>
       </c>
       <c r="F23" s="3">
-        <v>-10300</v>
+        <v>-9400</v>
       </c>
       <c r="G23" s="3">
-        <v>-12900</v>
+        <v>-10700</v>
       </c>
       <c r="H23" s="3">
-        <v>-6600</v>
+        <v>-13300</v>
       </c>
       <c r="I23" s="3">
-        <v>3800</v>
+        <v>-6800</v>
       </c>
       <c r="J23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>-3200</v>
       </c>
       <c r="E24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
-        <v>-3700</v>
-      </c>
       <c r="G24" s="3">
-        <v>-3100</v>
+        <v>-3800</v>
       </c>
       <c r="H24" s="3">
-        <v>-2700</v>
+        <v>-3200</v>
       </c>
       <c r="I24" s="3">
-        <v>900</v>
+        <v>-2800</v>
       </c>
       <c r="J24" s="3">
         <v>1000</v>
       </c>
       <c r="K24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1500</v>
       </c>
       <c r="O24" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-6900</v>
+        <v>-12600</v>
       </c>
       <c r="E26" s="3">
-        <v>-8300</v>
+        <v>-7100</v>
       </c>
       <c r="F26" s="3">
-        <v>-6600</v>
+        <v>-8600</v>
       </c>
       <c r="G26" s="3">
-        <v>-9800</v>
+        <v>-6800</v>
       </c>
       <c r="H26" s="3">
-        <v>-3900</v>
+        <v>-10100</v>
       </c>
       <c r="I26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="J26" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-6900</v>
+        <v>-12600</v>
       </c>
       <c r="E27" s="3">
-        <v>-8300</v>
+        <v>-7100</v>
       </c>
       <c r="F27" s="3">
-        <v>-6600</v>
+        <v>-8600</v>
       </c>
       <c r="G27" s="3">
-        <v>-9800</v>
+        <v>-6800</v>
       </c>
       <c r="H27" s="3">
-        <v>-3900</v>
+        <v>-10100</v>
       </c>
       <c r="I27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1513,31 +1571,34 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,81 +1715,87 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>200</v>
       </c>
       <c r="I32" s="3">
         <v>200</v>
       </c>
       <c r="J32" s="3">
+        <v>200</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6900</v>
+        <v>-12600</v>
       </c>
       <c r="E33" s="3">
-        <v>-8300</v>
+        <v>-7100</v>
       </c>
       <c r="F33" s="3">
-        <v>-6600</v>
+        <v>-8600</v>
       </c>
       <c r="G33" s="3">
-        <v>-9800</v>
+        <v>-6800</v>
       </c>
       <c r="H33" s="3">
-        <v>-3900</v>
+        <v>-10100</v>
       </c>
       <c r="I33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6900</v>
+        <v>-12600</v>
       </c>
       <c r="E35" s="3">
-        <v>-8300</v>
+        <v>-7100</v>
       </c>
       <c r="F35" s="3">
-        <v>-6600</v>
+        <v>-8600</v>
       </c>
       <c r="G35" s="3">
-        <v>-9800</v>
+        <v>-6800</v>
       </c>
       <c r="H35" s="3">
-        <v>-3900</v>
+        <v>-10100</v>
       </c>
       <c r="I35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82300</v>
+        <v>89600</v>
       </c>
       <c r="E41" s="3">
-        <v>88800</v>
+        <v>84800</v>
       </c>
       <c r="F41" s="3">
-        <v>79100</v>
+        <v>91500</v>
       </c>
       <c r="G41" s="3">
-        <v>71700</v>
+        <v>81600</v>
       </c>
       <c r="H41" s="3">
-        <v>181200</v>
+        <v>73900</v>
       </c>
       <c r="I41" s="3">
-        <v>171100</v>
+        <v>186700</v>
       </c>
       <c r="J41" s="3">
+        <v>176300</v>
+      </c>
+      <c r="K41" s="3">
         <v>170100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1939,7 +2029,7 @@
         <v>500</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1948,63 +2038,69 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>8600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>24700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69500</v>
+        <v>50600</v>
       </c>
       <c r="E43" s="3">
-        <v>53000</v>
+        <v>71600</v>
       </c>
       <c r="F43" s="3">
-        <v>54300</v>
+        <v>54600</v>
       </c>
       <c r="G43" s="3">
-        <v>44400</v>
+        <v>56000</v>
       </c>
       <c r="H43" s="3">
-        <v>31600</v>
+        <v>45800</v>
       </c>
       <c r="I43" s="3">
-        <v>33900</v>
+        <v>32600</v>
       </c>
       <c r="J43" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K43" s="3">
         <v>29500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,90 +2140,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24000</v>
+        <v>25100</v>
       </c>
       <c r="E45" s="3">
-        <v>23100</v>
+        <v>24800</v>
       </c>
       <c r="F45" s="3">
-        <v>20500</v>
+        <v>23800</v>
       </c>
       <c r="G45" s="3">
-        <v>19400</v>
+        <v>21100</v>
       </c>
       <c r="H45" s="3">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="I45" s="3">
-        <v>16300</v>
+        <v>19500</v>
       </c>
       <c r="J45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K45" s="3">
         <v>18000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>176300</v>
+        <v>165800</v>
       </c>
       <c r="E46" s="3">
-        <v>165400</v>
+        <v>181600</v>
       </c>
       <c r="F46" s="3">
-        <v>154400</v>
+        <v>170400</v>
       </c>
       <c r="G46" s="3">
-        <v>136000</v>
+        <v>159100</v>
       </c>
       <c r="H46" s="3">
-        <v>231800</v>
+        <v>140200</v>
       </c>
       <c r="I46" s="3">
-        <v>221300</v>
+        <v>238800</v>
       </c>
       <c r="J46" s="3">
+        <v>228000</v>
+      </c>
+      <c r="K46" s="3">
         <v>217700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>122600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>109900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>80400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="E48" s="3">
-        <v>19300</v>
+        <v>19500</v>
       </c>
       <c r="F48" s="3">
-        <v>21800</v>
+        <v>19900</v>
       </c>
       <c r="G48" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="H48" s="3">
-        <v>18900</v>
+        <v>23400</v>
       </c>
       <c r="I48" s="3">
-        <v>20800</v>
+        <v>19400</v>
       </c>
       <c r="J48" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K48" s="3">
         <v>20400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>471100</v>
+        <v>480000</v>
       </c>
       <c r="E49" s="3">
-        <v>470500</v>
+        <v>485400</v>
       </c>
       <c r="F49" s="3">
-        <v>477200</v>
+        <v>484800</v>
       </c>
       <c r="G49" s="3">
-        <v>483400</v>
+        <v>491800</v>
       </c>
       <c r="H49" s="3">
+        <v>498200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K49" s="3">
         <v>9500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>9300</v>
       </c>
-      <c r="J49" s="3">
-        <v>9500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>9300</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>51800</v>
+        <v>61200</v>
       </c>
       <c r="E52" s="3">
-        <v>47200</v>
+        <v>53400</v>
       </c>
       <c r="F52" s="3">
-        <v>43800</v>
+        <v>48600</v>
       </c>
       <c r="G52" s="3">
-        <v>41100</v>
+        <v>45200</v>
       </c>
       <c r="H52" s="3">
-        <v>40500</v>
+        <v>42400</v>
       </c>
       <c r="I52" s="3">
-        <v>30700</v>
+        <v>41700</v>
       </c>
       <c r="J52" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K52" s="3">
         <v>28900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>28400</v>
       </c>
       <c r="L52" s="3">
         <v>28400</v>
       </c>
       <c r="M52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="N52" s="3">
         <v>28600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>718100</v>
+        <v>725700</v>
       </c>
       <c r="E54" s="3">
-        <v>702300</v>
+        <v>740000</v>
       </c>
       <c r="F54" s="3">
-        <v>697300</v>
+        <v>723700</v>
       </c>
       <c r="G54" s="3">
-        <v>683200</v>
+        <v>718500</v>
       </c>
       <c r="H54" s="3">
-        <v>300600</v>
+        <v>704100</v>
       </c>
       <c r="I54" s="3">
-        <v>282200</v>
+        <v>309800</v>
       </c>
       <c r="J54" s="3">
+        <v>290800</v>
+      </c>
+      <c r="K54" s="3">
         <v>276500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>178300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>165900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>134800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
-        <v>2400</v>
-      </c>
       <c r="G57" s="3">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="H57" s="3">
-        <v>18200</v>
+        <v>4500</v>
       </c>
       <c r="I57" s="3">
-        <v>6000</v>
+        <v>18700</v>
       </c>
       <c r="J57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="E58" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F58" s="3">
         <v>7600</v>
       </c>
       <c r="G58" s="3">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="H58" s="3">
-        <v>3800</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2000</v>
       </c>
       <c r="O58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>215500</v>
+        <v>227700</v>
       </c>
       <c r="E59" s="3">
-        <v>206200</v>
+        <v>222100</v>
       </c>
       <c r="F59" s="3">
-        <v>194300</v>
+        <v>212500</v>
       </c>
       <c r="G59" s="3">
-        <v>172200</v>
+        <v>200200</v>
       </c>
       <c r="H59" s="3">
-        <v>146500</v>
+        <v>177500</v>
       </c>
       <c r="I59" s="3">
-        <v>139100</v>
+        <v>151000</v>
       </c>
       <c r="J59" s="3">
+        <v>143300</v>
+      </c>
+      <c r="K59" s="3">
         <v>134300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>127700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>123800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>108200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>107900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>110200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>225300</v>
+        <v>236300</v>
       </c>
       <c r="E60" s="3">
-        <v>216600</v>
+        <v>232200</v>
       </c>
       <c r="F60" s="3">
-        <v>204200</v>
+        <v>223200</v>
       </c>
       <c r="G60" s="3">
-        <v>183600</v>
+        <v>210500</v>
       </c>
       <c r="H60" s="3">
-        <v>168500</v>
+        <v>189200</v>
       </c>
       <c r="I60" s="3">
-        <v>148400</v>
+        <v>173600</v>
       </c>
       <c r="J60" s="3">
+        <v>152900</v>
+      </c>
+      <c r="K60" s="3">
         <v>142600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>135300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>131400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>116600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>114600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>350800</v>
+        <v>359700</v>
       </c>
       <c r="E61" s="3">
-        <v>352200</v>
+        <v>361500</v>
       </c>
       <c r="F61" s="3">
-        <v>354200</v>
+        <v>363000</v>
       </c>
       <c r="G61" s="3">
-        <v>355500</v>
+        <v>365000</v>
       </c>
       <c r="H61" s="3">
-        <v>11600</v>
+        <v>366400</v>
       </c>
       <c r="I61" s="3">
-        <v>12800</v>
+        <v>11900</v>
       </c>
       <c r="J61" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K61" s="3">
         <v>13500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>137800</v>
+        <v>135500</v>
       </c>
       <c r="E62" s="3">
-        <v>123100</v>
+        <v>142000</v>
       </c>
       <c r="F62" s="3">
-        <v>119900</v>
+        <v>126800</v>
       </c>
       <c r="G62" s="3">
-        <v>121500</v>
+        <v>123600</v>
       </c>
       <c r="H62" s="3">
-        <v>86400</v>
+        <v>125200</v>
       </c>
       <c r="I62" s="3">
-        <v>86700</v>
+        <v>89100</v>
       </c>
       <c r="J62" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K62" s="3">
         <v>88000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>85400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>78700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>67500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>713900</v>
+        <v>731500</v>
       </c>
       <c r="E66" s="3">
-        <v>691900</v>
+        <v>735700</v>
       </c>
       <c r="F66" s="3">
-        <v>678400</v>
+        <v>713000</v>
       </c>
       <c r="G66" s="3">
-        <v>660600</v>
+        <v>699100</v>
       </c>
       <c r="H66" s="3">
-        <v>266500</v>
+        <v>680700</v>
       </c>
       <c r="I66" s="3">
-        <v>247900</v>
+        <v>274600</v>
       </c>
       <c r="J66" s="3">
+        <v>255400</v>
+      </c>
+      <c r="K66" s="3">
         <v>244000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>231100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>220800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>195500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>194500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-203300</v>
+        <v>-232200</v>
       </c>
       <c r="E72" s="3">
-        <v>-196800</v>
+        <v>-209500</v>
       </c>
       <c r="F72" s="3">
-        <v>-185100</v>
+        <v>-202800</v>
       </c>
       <c r="G72" s="3">
-        <v>-175100</v>
+        <v>-190700</v>
       </c>
       <c r="H72" s="3">
-        <v>-161600</v>
+        <v>-180500</v>
       </c>
       <c r="I72" s="3">
-        <v>-161400</v>
+        <v>-166500</v>
       </c>
       <c r="J72" s="3">
+        <v>-166300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-159200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-160800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-158900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-160300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-162300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-161200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4100</v>
+        <v>-5800</v>
       </c>
       <c r="E76" s="3">
-        <v>10400</v>
+        <v>4300</v>
       </c>
       <c r="F76" s="3">
-        <v>18900</v>
+        <v>10700</v>
       </c>
       <c r="G76" s="3">
-        <v>22700</v>
+        <v>19400</v>
       </c>
       <c r="H76" s="3">
-        <v>34200</v>
+        <v>23400</v>
       </c>
       <c r="I76" s="3">
-        <v>34300</v>
+        <v>35200</v>
       </c>
       <c r="J76" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K76" s="3">
         <v>32500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-52800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-54900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-57000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-59700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-62100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6900</v>
+        <v>-12600</v>
       </c>
       <c r="E81" s="3">
-        <v>-8300</v>
+        <v>-7100</v>
       </c>
       <c r="F81" s="3">
-        <v>-6600</v>
+        <v>-8600</v>
       </c>
       <c r="G81" s="3">
-        <v>-9800</v>
+        <v>-6800</v>
       </c>
       <c r="H81" s="3">
-        <v>-3900</v>
+        <v>-10100</v>
       </c>
       <c r="I81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E83" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="F83" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="G83" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="H83" s="3">
-        <v>5700</v>
+        <v>8600</v>
       </c>
       <c r="I83" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="J83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K83" s="3">
         <v>5200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4500</v>
       </c>
       <c r="M83" s="3">
         <v>4500</v>
       </c>
       <c r="N83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O83" s="3">
         <v>4300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11200</v>
+        <v>20200</v>
       </c>
       <c r="E89" s="3">
-        <v>22000</v>
+        <v>11500</v>
       </c>
       <c r="F89" s="3">
-        <v>19000</v>
+        <v>22700</v>
       </c>
       <c r="G89" s="3">
+        <v>19600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
-        <v>14800</v>
-      </c>
       <c r="I89" s="3">
-        <v>9400</v>
+        <v>15200</v>
       </c>
       <c r="J89" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K89" s="3">
         <v>17300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
-        <v>-500</v>
-      </c>
       <c r="G94" s="3">
-        <v>-441900</v>
+        <v>-600</v>
       </c>
       <c r="H94" s="3">
+        <v>-455300</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-2200</v>
-      </c>
       <c r="J94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K94" s="3">
         <v>8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,13 +4147,14 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="E96" s="3">
         <v>-4100</v>
@@ -3929,25 +4163,25 @@
         <v>-4200</v>
       </c>
       <c r="G96" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="H96" s="3">
         <v>-4200</v>
       </c>
       <c r="I96" s="3">
-        <v>-4100</v>
+        <v>-4400</v>
       </c>
       <c r="J96" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3200</v>
       </c>
       <c r="N96" s="3">
         <v>-3200</v>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16200</v>
+        <v>-14200</v>
       </c>
       <c r="E100" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="G100" s="3">
         <v>-11500</v>
       </c>
-      <c r="F100" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>333400</v>
-      </c>
       <c r="H100" s="3">
-        <v>-4700</v>
+        <v>343600</v>
       </c>
       <c r="I100" s="3">
-        <v>-6300</v>
+        <v>-4900</v>
       </c>
       <c r="J100" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K100" s="3">
         <v>78100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6500</v>
+        <v>4800</v>
       </c>
       <c r="E102" s="3">
-        <v>9700</v>
+        <v>-6700</v>
       </c>
       <c r="F102" s="3">
-        <v>7400</v>
+        <v>10000</v>
       </c>
       <c r="G102" s="3">
-        <v>-109400</v>
+        <v>7600</v>
       </c>
       <c r="H102" s="3">
-        <v>10100</v>
+        <v>-112700</v>
       </c>
       <c r="I102" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>103800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>71400</v>
+        <v>79100</v>
       </c>
       <c r="E8" s="3">
-        <v>69900</v>
+        <v>74100</v>
       </c>
       <c r="F8" s="3">
-        <v>69300</v>
+        <v>72600</v>
       </c>
       <c r="G8" s="3">
-        <v>65400</v>
+        <v>71900</v>
       </c>
       <c r="H8" s="3">
-        <v>58200</v>
+        <v>67900</v>
       </c>
       <c r="I8" s="3">
-        <v>42400</v>
+        <v>60400</v>
       </c>
       <c r="J8" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K8" s="3">
         <v>40900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13700</v>
+        <v>14800</v>
       </c>
       <c r="E9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H9" s="3">
         <v>13000</v>
       </c>
-      <c r="F9" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>12500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11300</v>
-      </c>
       <c r="I9" s="3">
-        <v>7300</v>
+        <v>11800</v>
       </c>
       <c r="J9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K9" s="3">
         <v>5200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57700</v>
+        <v>64300</v>
       </c>
       <c r="E10" s="3">
-        <v>56900</v>
+        <v>59900</v>
       </c>
       <c r="F10" s="3">
-        <v>57100</v>
+        <v>59100</v>
       </c>
       <c r="G10" s="3">
-        <v>52900</v>
+        <v>59300</v>
       </c>
       <c r="H10" s="3">
-        <v>46900</v>
+        <v>54900</v>
       </c>
       <c r="I10" s="3">
-        <v>35000</v>
+        <v>48700</v>
       </c>
       <c r="J10" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K10" s="3">
         <v>35700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>30900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18200</v>
+        <v>19000</v>
       </c>
       <c r="E12" s="3">
-        <v>14400</v>
+        <v>18900</v>
       </c>
       <c r="F12" s="3">
-        <v>16600</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="3">
-        <v>15000</v>
+        <v>17200</v>
       </c>
       <c r="H12" s="3">
-        <v>13700</v>
+        <v>15500</v>
       </c>
       <c r="I12" s="3">
-        <v>24300</v>
+        <v>14200</v>
       </c>
       <c r="J12" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>79200</v>
+        <v>80000</v>
       </c>
       <c r="E17" s="3">
-        <v>67300</v>
+        <v>82200</v>
       </c>
       <c r="F17" s="3">
+        <v>69900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>74200</v>
+      </c>
+      <c r="H17" s="3">
         <v>71500</v>
       </c>
-      <c r="G17" s="3">
-        <v>68800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>64700</v>
-      </c>
       <c r="I17" s="3">
-        <v>48800</v>
+        <v>67200</v>
       </c>
       <c r="J17" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K17" s="3">
         <v>36500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7800</v>
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>2600</v>
+        <v>-8100</v>
       </c>
       <c r="F18" s="3">
-        <v>-2200</v>
+        <v>2700</v>
       </c>
       <c r="G18" s="3">
-        <v>-3400</v>
+        <v>-2300</v>
       </c>
       <c r="H18" s="3">
-        <v>-6500</v>
+        <v>-3600</v>
       </c>
       <c r="I18" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="J18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1190,104 +1223,110 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-200</v>
       </c>
       <c r="J20" s="3">
         <v>-200</v>
       </c>
       <c r="K20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="E21" s="3">
-        <v>14600</v>
+        <v>4700</v>
       </c>
       <c r="F21" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K21" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L21" s="3">
+        <v>8800</v>
+      </c>
+      <c r="M21" s="3">
         <v>10300</v>
       </c>
-      <c r="G21" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>9900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>8800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>10300</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>8200</v>
+        <v>9900</v>
       </c>
       <c r="E22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G22" s="3">
         <v>7000</v>
       </c>
-      <c r="F22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6900</v>
-      </c>
       <c r="H22" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>7100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1302,104 +1341,113 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-15800</v>
+        <v>-10500</v>
       </c>
       <c r="E23" s="3">
-        <v>-4100</v>
+        <v>-16400</v>
       </c>
       <c r="F23" s="3">
-        <v>-9400</v>
+        <v>-4300</v>
       </c>
       <c r="G23" s="3">
-        <v>-10700</v>
+        <v>-9800</v>
       </c>
       <c r="H23" s="3">
-        <v>-13300</v>
+        <v>-11100</v>
       </c>
       <c r="I23" s="3">
-        <v>-6800</v>
+        <v>-13800</v>
       </c>
       <c r="J23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-3200</v>
+        <v>-900</v>
       </c>
       <c r="E24" s="3">
-        <v>3000</v>
+        <v>-3300</v>
       </c>
       <c r="F24" s="3">
-        <v>-800</v>
+        <v>3100</v>
       </c>
       <c r="G24" s="3">
-        <v>-3800</v>
+        <v>-900</v>
       </c>
       <c r="H24" s="3">
-        <v>-3200</v>
+        <v>-4000</v>
       </c>
       <c r="I24" s="3">
-        <v>-2800</v>
+        <v>-3300</v>
       </c>
       <c r="J24" s="3">
-        <v>1000</v>
+        <v>-2900</v>
       </c>
       <c r="K24" s="3">
         <v>1000</v>
       </c>
       <c r="L24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1500</v>
       </c>
       <c r="P24" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-12600</v>
+        <v>-9700</v>
       </c>
       <c r="E26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-7100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-10100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-4000</v>
+        <v>-10500</v>
       </c>
       <c r="J26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-12600</v>
+        <v>-9700</v>
       </c>
       <c r="E27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-10100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-4000</v>
+        <v>-10500</v>
       </c>
       <c r="J27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1600,8 +1660,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,84 +1787,90 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>200</v>
       </c>
       <c r="J32" s="3">
         <v>200</v>
       </c>
       <c r="K32" s="3">
+        <v>200</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12600</v>
+        <v>-9700</v>
       </c>
       <c r="E33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-10100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-4000</v>
+        <v>-10500</v>
       </c>
       <c r="J33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12600</v>
+        <v>-9700</v>
       </c>
       <c r="E35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-10100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-4000</v>
+        <v>-10500</v>
       </c>
       <c r="J35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89600</v>
+        <v>68400</v>
       </c>
       <c r="E41" s="3">
-        <v>84800</v>
+        <v>93000</v>
       </c>
       <c r="F41" s="3">
-        <v>91500</v>
+        <v>88000</v>
       </c>
       <c r="G41" s="3">
-        <v>81600</v>
+        <v>95000</v>
       </c>
       <c r="H41" s="3">
-        <v>73900</v>
+        <v>84700</v>
       </c>
       <c r="I41" s="3">
-        <v>186700</v>
+        <v>76800</v>
       </c>
       <c r="J41" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K41" s="3">
         <v>176300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>170100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2032,7 +2121,7 @@
         <v>500</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2041,66 +2130,72 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>8600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>24700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>50600</v>
+        <v>62900</v>
       </c>
       <c r="E43" s="3">
-        <v>71600</v>
+        <v>52600</v>
       </c>
       <c r="F43" s="3">
-        <v>54600</v>
+        <v>74300</v>
       </c>
       <c r="G43" s="3">
-        <v>56000</v>
+        <v>56700</v>
       </c>
       <c r="H43" s="3">
-        <v>45800</v>
+        <v>58100</v>
       </c>
       <c r="I43" s="3">
-        <v>32600</v>
+        <v>47500</v>
       </c>
       <c r="J43" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K43" s="3">
         <v>34900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2238,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25100</v>
+        <v>27100</v>
       </c>
       <c r="E45" s="3">
-        <v>24800</v>
+        <v>26100</v>
       </c>
       <c r="F45" s="3">
-        <v>23800</v>
+        <v>25700</v>
       </c>
       <c r="G45" s="3">
-        <v>21100</v>
+        <v>24700</v>
       </c>
       <c r="H45" s="3">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="I45" s="3">
-        <v>19500</v>
+        <v>20700</v>
       </c>
       <c r="J45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K45" s="3">
         <v>16800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>165800</v>
+        <v>159000</v>
       </c>
       <c r="E46" s="3">
-        <v>181600</v>
+        <v>172100</v>
       </c>
       <c r="F46" s="3">
-        <v>170400</v>
+        <v>188600</v>
       </c>
       <c r="G46" s="3">
-        <v>159100</v>
+        <v>176900</v>
       </c>
       <c r="H46" s="3">
-        <v>140200</v>
+        <v>165200</v>
       </c>
       <c r="I46" s="3">
-        <v>238800</v>
+        <v>145500</v>
       </c>
       <c r="J46" s="3">
+        <v>247900</v>
+      </c>
+      <c r="K46" s="3">
         <v>228000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>217700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>122600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>109900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>83200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>80400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2379,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18800</v>
+        <v>17400</v>
       </c>
       <c r="E48" s="3">
         <v>19500</v>
       </c>
       <c r="F48" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="G48" s="3">
-        <v>22500</v>
+        <v>20600</v>
       </c>
       <c r="H48" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="I48" s="3">
-        <v>19400</v>
+        <v>24200</v>
       </c>
       <c r="J48" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K48" s="3">
         <v>21500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>480000</v>
+        <v>492700</v>
       </c>
       <c r="E49" s="3">
-        <v>485400</v>
+        <v>498400</v>
       </c>
       <c r="F49" s="3">
-        <v>484800</v>
+        <v>504000</v>
       </c>
       <c r="G49" s="3">
-        <v>491800</v>
+        <v>503400</v>
       </c>
       <c r="H49" s="3">
-        <v>498200</v>
+        <v>510500</v>
       </c>
       <c r="I49" s="3">
-        <v>9800</v>
+        <v>517200</v>
       </c>
       <c r="J49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K49" s="3">
         <v>9600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61200</v>
+        <v>68700</v>
       </c>
       <c r="E52" s="3">
-        <v>53400</v>
+        <v>63500</v>
       </c>
       <c r="F52" s="3">
-        <v>48600</v>
+        <v>55400</v>
       </c>
       <c r="G52" s="3">
-        <v>45200</v>
+        <v>50500</v>
       </c>
       <c r="H52" s="3">
-        <v>42400</v>
+        <v>46900</v>
       </c>
       <c r="I52" s="3">
-        <v>41700</v>
+        <v>44000</v>
       </c>
       <c r="J52" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K52" s="3">
         <v>31700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>28400</v>
       </c>
       <c r="M52" s="3">
         <v>28400</v>
       </c>
       <c r="N52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="O52" s="3">
         <v>28600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>725700</v>
+        <v>737800</v>
       </c>
       <c r="E54" s="3">
-        <v>740000</v>
+        <v>753500</v>
       </c>
       <c r="F54" s="3">
-        <v>723700</v>
+        <v>768300</v>
       </c>
       <c r="G54" s="3">
-        <v>718500</v>
+        <v>751400</v>
       </c>
       <c r="H54" s="3">
-        <v>704100</v>
+        <v>746000</v>
       </c>
       <c r="I54" s="3">
-        <v>309800</v>
+        <v>731000</v>
       </c>
       <c r="J54" s="3">
+        <v>321700</v>
+      </c>
+      <c r="K54" s="3">
         <v>290800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>276500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>178300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>165900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>138500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>134800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4500</v>
-      </c>
       <c r="I57" s="3">
-        <v>18700</v>
+        <v>4700</v>
       </c>
       <c r="J57" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K57" s="3">
         <v>6200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="E58" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="F58" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="G58" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H58" s="3">
-        <v>7200</v>
+        <v>8100</v>
       </c>
       <c r="I58" s="3">
-        <v>3900</v>
+        <v>7500</v>
       </c>
       <c r="J58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2000</v>
       </c>
       <c r="P58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>227700</v>
+        <v>233400</v>
       </c>
       <c r="E59" s="3">
-        <v>222100</v>
+        <v>236400</v>
       </c>
       <c r="F59" s="3">
-        <v>212500</v>
+        <v>230600</v>
       </c>
       <c r="G59" s="3">
-        <v>200200</v>
+        <v>220600</v>
       </c>
       <c r="H59" s="3">
-        <v>177500</v>
+        <v>207900</v>
       </c>
       <c r="I59" s="3">
-        <v>151000</v>
+        <v>184200</v>
       </c>
       <c r="J59" s="3">
+        <v>156800</v>
+      </c>
+      <c r="K59" s="3">
         <v>143300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>134300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>127700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>123800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>108200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>107900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>110200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>236300</v>
+        <v>245800</v>
       </c>
       <c r="E60" s="3">
-        <v>232200</v>
+        <v>245300</v>
       </c>
       <c r="F60" s="3">
-        <v>223200</v>
+        <v>241000</v>
       </c>
       <c r="G60" s="3">
-        <v>210500</v>
+        <v>231700</v>
       </c>
       <c r="H60" s="3">
-        <v>189200</v>
+        <v>218500</v>
       </c>
       <c r="I60" s="3">
-        <v>173600</v>
+        <v>196400</v>
       </c>
       <c r="J60" s="3">
+        <v>180200</v>
+      </c>
+      <c r="K60" s="3">
         <v>152900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>142600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>135300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>131400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>116600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>114600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>359700</v>
+        <v>365000</v>
       </c>
       <c r="E61" s="3">
-        <v>361500</v>
+        <v>373400</v>
       </c>
       <c r="F61" s="3">
-        <v>363000</v>
+        <v>375300</v>
       </c>
       <c r="G61" s="3">
-        <v>365000</v>
+        <v>376900</v>
       </c>
       <c r="H61" s="3">
-        <v>366400</v>
+        <v>379000</v>
       </c>
       <c r="I61" s="3">
-        <v>11900</v>
+        <v>380400</v>
       </c>
       <c r="J61" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K61" s="3">
         <v>13200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>135500</v>
+        <v>139100</v>
       </c>
       <c r="E62" s="3">
-        <v>142000</v>
+        <v>140700</v>
       </c>
       <c r="F62" s="3">
-        <v>126800</v>
+        <v>147500</v>
       </c>
       <c r="G62" s="3">
-        <v>123600</v>
+        <v>131700</v>
       </c>
       <c r="H62" s="3">
-        <v>125200</v>
+        <v>128300</v>
       </c>
       <c r="I62" s="3">
-        <v>89100</v>
+        <v>130000</v>
       </c>
       <c r="J62" s="3">
+        <v>92500</v>
+      </c>
+      <c r="K62" s="3">
         <v>89300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>88000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>85400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>78700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>67500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>731500</v>
+        <v>749900</v>
       </c>
       <c r="E66" s="3">
-        <v>735700</v>
+        <v>759500</v>
       </c>
       <c r="F66" s="3">
-        <v>713000</v>
+        <v>763800</v>
       </c>
       <c r="G66" s="3">
-        <v>699100</v>
+        <v>740300</v>
       </c>
       <c r="H66" s="3">
-        <v>680700</v>
+        <v>725800</v>
       </c>
       <c r="I66" s="3">
-        <v>274600</v>
+        <v>706700</v>
       </c>
       <c r="J66" s="3">
+        <v>285100</v>
+      </c>
+      <c r="K66" s="3">
         <v>255400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>244000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>231100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>220800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>195500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>194500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-232200</v>
+        <v>-253900</v>
       </c>
       <c r="E72" s="3">
-        <v>-209500</v>
+        <v>-241100</v>
       </c>
       <c r="F72" s="3">
-        <v>-202800</v>
+        <v>-217500</v>
       </c>
       <c r="G72" s="3">
-        <v>-190700</v>
+        <v>-210500</v>
       </c>
       <c r="H72" s="3">
-        <v>-180500</v>
+        <v>-198000</v>
       </c>
       <c r="I72" s="3">
-        <v>-166500</v>
+        <v>-187400</v>
       </c>
       <c r="J72" s="3">
+        <v>-172800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-166300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-159200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-160800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-158900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-160300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-162300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-161200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5800</v>
+        <v>-12100</v>
       </c>
       <c r="E76" s="3">
-        <v>4300</v>
+        <v>-6000</v>
       </c>
       <c r="F76" s="3">
-        <v>10700</v>
+        <v>4400</v>
       </c>
       <c r="G76" s="3">
-        <v>19400</v>
+        <v>11100</v>
       </c>
       <c r="H76" s="3">
-        <v>23400</v>
+        <v>20200</v>
       </c>
       <c r="I76" s="3">
-        <v>35200</v>
+        <v>24300</v>
       </c>
       <c r="J76" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K76" s="3">
         <v>35300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-52800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-54900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-57000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-59700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-62100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12600</v>
+        <v>-9700</v>
       </c>
       <c r="E81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-10100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-4000</v>
+        <v>-10500</v>
       </c>
       <c r="J81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E83" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="F83" s="3">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="G83" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="H83" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="I83" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>4500</v>
       </c>
       <c r="N83" s="3">
         <v>4500</v>
       </c>
       <c r="O83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P83" s="3">
         <v>4300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20200</v>
+        <v>1200</v>
       </c>
       <c r="E89" s="3">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="F89" s="3">
-        <v>22700</v>
+        <v>12000</v>
       </c>
       <c r="G89" s="3">
-        <v>19600</v>
+        <v>23600</v>
       </c>
       <c r="H89" s="3">
-        <v>-800</v>
+        <v>20400</v>
       </c>
       <c r="I89" s="3">
-        <v>15200</v>
+        <v>-900</v>
       </c>
       <c r="J89" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K89" s="3">
         <v>9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-700</v>
-      </c>
       <c r="G94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>-455300</v>
-      </c>
       <c r="I94" s="3">
+        <v>-472700</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,43 +4380,44 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E96" s="3">
-        <v>-4100</v>
+        <v>-4400</v>
       </c>
       <c r="F96" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="G96" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H96" s="3">
-        <v>-4200</v>
+        <v>-4500</v>
       </c>
       <c r="I96" s="3">
         <v>-4400</v>
       </c>
       <c r="J96" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-3200</v>
       </c>
       <c r="O96" s="3">
         <v>-3200</v>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14200</v>
+        <v>-25500</v>
       </c>
       <c r="E100" s="3">
-        <v>-16700</v>
+        <v>-14800</v>
       </c>
       <c r="F100" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H100" s="3">
         <v>-11900</v>
       </c>
-      <c r="G100" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>343600</v>
-      </c>
       <c r="I100" s="3">
-        <v>-4900</v>
+        <v>356700</v>
       </c>
       <c r="J100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>78100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,83 +4625,89 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4800</v>
+        <v>-24600</v>
       </c>
       <c r="E102" s="3">
-        <v>-6700</v>
+        <v>5000</v>
       </c>
       <c r="F102" s="3">
-        <v>10000</v>
+        <v>-7000</v>
       </c>
       <c r="G102" s="3">
-        <v>7600</v>
+        <v>10300</v>
       </c>
       <c r="H102" s="3">
-        <v>-112700</v>
+        <v>7900</v>
       </c>
       <c r="I102" s="3">
-        <v>10400</v>
+        <v>-117100</v>
       </c>
       <c r="J102" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>103800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ABST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79100</v>
+        <v>79400</v>
       </c>
       <c r="E8" s="3">
-        <v>74100</v>
+        <v>77200</v>
       </c>
       <c r="F8" s="3">
-        <v>72600</v>
+        <v>72400</v>
       </c>
       <c r="G8" s="3">
-        <v>71900</v>
+        <v>70900</v>
       </c>
       <c r="H8" s="3">
-        <v>67900</v>
+        <v>70200</v>
       </c>
       <c r="I8" s="3">
-        <v>60400</v>
+        <v>66300</v>
       </c>
       <c r="J8" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K8" s="3">
         <v>44000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14800</v>
+        <v>13700</v>
       </c>
       <c r="E9" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="F9" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="G9" s="3">
-        <v>12600</v>
+        <v>13200</v>
       </c>
       <c r="H9" s="3">
-        <v>13000</v>
+        <v>12300</v>
       </c>
       <c r="I9" s="3">
-        <v>11800</v>
+        <v>12700</v>
       </c>
       <c r="J9" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K9" s="3">
         <v>7600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>64300</v>
+        <v>65700</v>
       </c>
       <c r="E10" s="3">
-        <v>59900</v>
+        <v>62800</v>
       </c>
       <c r="F10" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="G10" s="3">
-        <v>59300</v>
+        <v>57700</v>
       </c>
       <c r="H10" s="3">
-        <v>54900</v>
+        <v>57900</v>
       </c>
       <c r="I10" s="3">
-        <v>48700</v>
+        <v>53600</v>
       </c>
       <c r="J10" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K10" s="3">
         <v>36400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>34300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="E12" s="3">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="F12" s="3">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="G12" s="3">
-        <v>17200</v>
+        <v>14600</v>
       </c>
       <c r="H12" s="3">
-        <v>15500</v>
+        <v>16800</v>
       </c>
       <c r="I12" s="3">
-        <v>14200</v>
+        <v>15200</v>
       </c>
       <c r="J12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K12" s="3">
         <v>25300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>80000</v>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="3">
-        <v>82200</v>
+        <v>78100</v>
       </c>
       <c r="F17" s="3">
-        <v>69900</v>
+        <v>80300</v>
       </c>
       <c r="G17" s="3">
-        <v>74200</v>
+        <v>68200</v>
       </c>
       <c r="H17" s="3">
-        <v>71500</v>
+        <v>72400</v>
       </c>
       <c r="I17" s="3">
-        <v>67200</v>
+        <v>69800</v>
       </c>
       <c r="J17" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K17" s="3">
         <v>50700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
-        <v>-8100</v>
-      </c>
       <c r="F18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G18" s="3">
         <v>2700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H18" s="3">
-        <v>-3600</v>
+        <v>-2200</v>
       </c>
       <c r="I18" s="3">
-        <v>-6800</v>
+        <v>-3500</v>
       </c>
       <c r="J18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,13 +1244,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>200</v>
+      <c r="D20" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1226,110 +1260,116 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
       </c>
       <c r="L20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>13000</v>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="3">
-        <v>4700</v>
+        <v>12700</v>
       </c>
       <c r="F21" s="3">
-        <v>15200</v>
+        <v>4500</v>
       </c>
       <c r="G21" s="3">
-        <v>10700</v>
+        <v>14800</v>
       </c>
       <c r="H21" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L21" s="3">
+        <v>9900</v>
+      </c>
+      <c r="M21" s="3">
+        <v>8800</v>
+      </c>
+      <c r="N21" s="3">
+        <v>10300</v>
+      </c>
+      <c r="O21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>9400</v>
+      </c>
+      <c r="R21" s="3">
         <v>10600</v>
       </c>
-      <c r="I21" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>9900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>8800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>10300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>9100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>9000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>9400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="E22" s="3">
-        <v>8600</v>
+        <v>9600</v>
       </c>
       <c r="F22" s="3">
-        <v>7300</v>
+        <v>8400</v>
       </c>
       <c r="G22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I22" s="3">
         <v>7000</v>
       </c>
-      <c r="H22" s="3">
-        <v>7200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7100</v>
-      </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>6900</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1344,110 +1384,119 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-10500</v>
+        <v>-7800</v>
       </c>
       <c r="E23" s="3">
-        <v>-16400</v>
+        <v>-10300</v>
       </c>
       <c r="F23" s="3">
-        <v>-4300</v>
+        <v>-16100</v>
       </c>
       <c r="G23" s="3">
-        <v>-9800</v>
+        <v>-4200</v>
       </c>
       <c r="H23" s="3">
-        <v>-11100</v>
+        <v>-9600</v>
       </c>
       <c r="I23" s="3">
-        <v>-13800</v>
+        <v>-10800</v>
       </c>
       <c r="J23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-900</v>
+        <v>-2500</v>
       </c>
       <c r="E24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3300</v>
       </c>
-      <c r="F24" s="3">
-        <v>3100</v>
-      </c>
       <c r="G24" s="3">
-        <v>-900</v>
+        <v>3000</v>
       </c>
       <c r="H24" s="3">
-        <v>-4000</v>
+        <v>-800</v>
       </c>
       <c r="I24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J24" s="3">
         <v>-3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1000</v>
       </c>
       <c r="L24" s="3">
         <v>1000</v>
       </c>
       <c r="M24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1500</v>
       </c>
       <c r="Q24" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
-        <v>-9700</v>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E26" s="3">
-        <v>-13100</v>
+        <v>-9400</v>
       </c>
       <c r="F26" s="3">
-        <v>-7400</v>
+        <v>-12800</v>
       </c>
       <c r="G26" s="3">
-        <v>-8900</v>
+        <v>-7200</v>
       </c>
       <c r="H26" s="3">
-        <v>-7100</v>
+        <v>-8700</v>
       </c>
       <c r="I26" s="3">
-        <v>-10500</v>
+        <v>-6900</v>
       </c>
       <c r="J26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
-        <v>-9700</v>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E27" s="3">
-        <v>-13100</v>
+        <v>-9400</v>
       </c>
       <c r="F27" s="3">
-        <v>-7400</v>
+        <v>-12800</v>
       </c>
       <c r="G27" s="3">
-        <v>-8900</v>
+        <v>-7200</v>
       </c>
       <c r="H27" s="3">
-        <v>-7100</v>
+        <v>-8700</v>
       </c>
       <c r="I27" s="3">
-        <v>-10500</v>
+        <v>-6900</v>
       </c>
       <c r="J27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1663,8 +1724,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,13 +1842,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-200</v>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -1790,87 +1860,93 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
       </c>
       <c r="L32" s="3">
+        <v>200</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-9700</v>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E33" s="3">
-        <v>-13100</v>
+        <v>-9400</v>
       </c>
       <c r="F33" s="3">
-        <v>-7400</v>
+        <v>-12800</v>
       </c>
       <c r="G33" s="3">
-        <v>-8900</v>
+        <v>-7200</v>
       </c>
       <c r="H33" s="3">
-        <v>-7100</v>
+        <v>-8700</v>
       </c>
       <c r="I33" s="3">
-        <v>-10500</v>
+        <v>-6900</v>
       </c>
       <c r="J33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-9700</v>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E35" s="3">
-        <v>-13100</v>
+        <v>-9400</v>
       </c>
       <c r="F35" s="3">
-        <v>-7400</v>
+        <v>-12800</v>
       </c>
       <c r="G35" s="3">
-        <v>-8900</v>
+        <v>-7200</v>
       </c>
       <c r="H35" s="3">
-        <v>-7100</v>
+        <v>-8700</v>
       </c>
       <c r="I35" s="3">
-        <v>-10500</v>
+        <v>-6900</v>
       </c>
       <c r="J35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>68400</v>
+        <v>67300</v>
       </c>
       <c r="E41" s="3">
-        <v>93000</v>
+        <v>66800</v>
       </c>
       <c r="F41" s="3">
-        <v>88000</v>
+        <v>90800</v>
       </c>
       <c r="G41" s="3">
-        <v>95000</v>
+        <v>86000</v>
       </c>
       <c r="H41" s="3">
-        <v>84700</v>
+        <v>92800</v>
       </c>
       <c r="I41" s="3">
-        <v>76800</v>
+        <v>82700</v>
       </c>
       <c r="J41" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K41" s="3">
         <v>193800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>170100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2124,7 +2214,7 @@
         <v>500</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2133,69 +2223,75 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>8600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>24700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62900</v>
+        <v>59000</v>
       </c>
       <c r="E43" s="3">
-        <v>52600</v>
+        <v>61400</v>
       </c>
       <c r="F43" s="3">
-        <v>74300</v>
+        <v>51300</v>
       </c>
       <c r="G43" s="3">
+        <v>72600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>55400</v>
+      </c>
+      <c r="I43" s="3">
         <v>56700</v>
       </c>
-      <c r="H43" s="3">
-        <v>58100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>47500</v>
-      </c>
       <c r="J43" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K43" s="3">
         <v>33900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,102 +2337,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="E45" s="3">
-        <v>26100</v>
+        <v>26500</v>
       </c>
       <c r="F45" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="G45" s="3">
-        <v>24700</v>
+        <v>25100</v>
       </c>
       <c r="H45" s="3">
-        <v>22000</v>
+        <v>24100</v>
       </c>
       <c r="I45" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="J45" s="3">
         <v>20300</v>
       </c>
       <c r="K45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="L45" s="3">
         <v>16800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>159000</v>
+        <v>154400</v>
       </c>
       <c r="E46" s="3">
-        <v>172100</v>
+        <v>155200</v>
       </c>
       <c r="F46" s="3">
-        <v>188600</v>
+        <v>168000</v>
       </c>
       <c r="G46" s="3">
-        <v>176900</v>
+        <v>184100</v>
       </c>
       <c r="H46" s="3">
-        <v>165200</v>
+        <v>172800</v>
       </c>
       <c r="I46" s="3">
-        <v>145500</v>
+        <v>161300</v>
       </c>
       <c r="J46" s="3">
+        <v>142100</v>
+      </c>
+      <c r="K46" s="3">
         <v>247900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>228000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>217700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>122600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>109900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>83200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>80400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>81700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17400</v>
+        <v>15400</v>
       </c>
       <c r="E48" s="3">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="F48" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="G48" s="3">
-        <v>20600</v>
+        <v>19800</v>
       </c>
       <c r="H48" s="3">
-        <v>23300</v>
+        <v>20100</v>
       </c>
       <c r="I48" s="3">
-        <v>24200</v>
+        <v>22800</v>
       </c>
       <c r="J48" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K48" s="3">
         <v>20200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>492700</v>
+        <v>472500</v>
       </c>
       <c r="E49" s="3">
-        <v>498400</v>
+        <v>481100</v>
       </c>
       <c r="F49" s="3">
-        <v>504000</v>
+        <v>486600</v>
       </c>
       <c r="G49" s="3">
-        <v>503400</v>
+        <v>492100</v>
       </c>
       <c r="H49" s="3">
-        <v>510500</v>
+        <v>491500</v>
       </c>
       <c r="I49" s="3">
-        <v>517200</v>
+        <v>498500</v>
       </c>
       <c r="J49" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K49" s="3">
         <v>10200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68700</v>
+        <v>70700</v>
       </c>
       <c r="E52" s="3">
-        <v>63500</v>
+        <v>67000</v>
       </c>
       <c r="F52" s="3">
-        <v>55400</v>
+        <v>62000</v>
       </c>
       <c r="G52" s="3">
-        <v>50500</v>
+        <v>54100</v>
       </c>
       <c r="H52" s="3">
-        <v>46900</v>
+        <v>49300</v>
       </c>
       <c r="I52" s="3">
-        <v>44000</v>
+        <v>45800</v>
       </c>
       <c r="J52" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K52" s="3">
         <v>43300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>28400</v>
       </c>
       <c r="N52" s="3">
         <v>28400</v>
       </c>
       <c r="O52" s="3">
+        <v>28400</v>
+      </c>
+      <c r="P52" s="3">
         <v>28600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>737800</v>
+        <v>712900</v>
       </c>
       <c r="E54" s="3">
-        <v>753500</v>
+        <v>720300</v>
       </c>
       <c r="F54" s="3">
-        <v>768300</v>
+        <v>735700</v>
       </c>
       <c r="G54" s="3">
-        <v>751400</v>
+        <v>750100</v>
       </c>
       <c r="H54" s="3">
-        <v>746000</v>
+        <v>733600</v>
       </c>
       <c r="I54" s="3">
-        <v>731000</v>
+        <v>728400</v>
       </c>
       <c r="J54" s="3">
+        <v>713700</v>
+      </c>
+      <c r="K54" s="3">
         <v>321700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>290800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>276500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>178300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>165900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>138500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>134800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>136400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4500</v>
+        <v>10800</v>
       </c>
       <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
-        <v>2600</v>
-      </c>
       <c r="G57" s="3">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="H57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
-        <v>4700</v>
-      </c>
       <c r="J57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K57" s="3">
         <v>19400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F58" s="3">
         <v>7800</v>
       </c>
-      <c r="E58" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I58" s="3">
         <v>7900</v>
       </c>
-      <c r="G58" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>8100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>7500</v>
-      </c>
       <c r="J58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2000</v>
       </c>
       <c r="Q58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>233400</v>
+        <v>219800</v>
       </c>
       <c r="E59" s="3">
-        <v>236400</v>
+        <v>227900</v>
       </c>
       <c r="F59" s="3">
-        <v>230600</v>
+        <v>230800</v>
       </c>
       <c r="G59" s="3">
-        <v>220600</v>
+        <v>225100</v>
       </c>
       <c r="H59" s="3">
-        <v>207900</v>
+        <v>215400</v>
       </c>
       <c r="I59" s="3">
-        <v>184200</v>
+        <v>203000</v>
       </c>
       <c r="J59" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K59" s="3">
         <v>156800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>143300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>134300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>127700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>123800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>108200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>107900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>110200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>245800</v>
+        <v>238200</v>
       </c>
       <c r="E60" s="3">
-        <v>245300</v>
+        <v>240000</v>
       </c>
       <c r="F60" s="3">
-        <v>241000</v>
+        <v>239500</v>
       </c>
       <c r="G60" s="3">
-        <v>231700</v>
+        <v>235300</v>
       </c>
       <c r="H60" s="3">
-        <v>218500</v>
+        <v>226200</v>
       </c>
       <c r="I60" s="3">
-        <v>196400</v>
+        <v>213400</v>
       </c>
       <c r="J60" s="3">
+        <v>191800</v>
+      </c>
+      <c r="K60" s="3">
         <v>180200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>152900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>142600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>135300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>131400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>116600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>114600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>117100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>365000</v>
+        <v>354500</v>
       </c>
       <c r="E61" s="3">
-        <v>373400</v>
+        <v>356400</v>
       </c>
       <c r="F61" s="3">
-        <v>375300</v>
+        <v>364600</v>
       </c>
       <c r="G61" s="3">
-        <v>376900</v>
+        <v>366400</v>
       </c>
       <c r="H61" s="3">
-        <v>379000</v>
+        <v>367900</v>
       </c>
       <c r="I61" s="3">
-        <v>380400</v>
+        <v>370000</v>
       </c>
       <c r="J61" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K61" s="3">
         <v>12400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>139100</v>
+        <v>136200</v>
       </c>
       <c r="E62" s="3">
-        <v>140700</v>
+        <v>135800</v>
       </c>
       <c r="F62" s="3">
-        <v>147500</v>
+        <v>137400</v>
       </c>
       <c r="G62" s="3">
-        <v>131700</v>
+        <v>144000</v>
       </c>
       <c r="H62" s="3">
-        <v>128300</v>
+        <v>128600</v>
       </c>
       <c r="I62" s="3">
-        <v>130000</v>
+        <v>125300</v>
       </c>
       <c r="J62" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K62" s="3">
         <v>92500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>89300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>88000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>85400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>78700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>67500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>70400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>71500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>749900</v>
+        <v>728900</v>
       </c>
       <c r="E66" s="3">
-        <v>759500</v>
+        <v>732200</v>
       </c>
       <c r="F66" s="3">
-        <v>763800</v>
+        <v>741500</v>
       </c>
       <c r="G66" s="3">
-        <v>740300</v>
+        <v>745800</v>
       </c>
       <c r="H66" s="3">
-        <v>725800</v>
+        <v>722800</v>
       </c>
       <c r="I66" s="3">
-        <v>706700</v>
+        <v>708700</v>
       </c>
       <c r="J66" s="3">
+        <v>690000</v>
+      </c>
+      <c r="K66" s="3">
         <v>285100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>255400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>244000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>231100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>220800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>195500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>194500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-253900</v>
+        <v>-257600</v>
       </c>
       <c r="E72" s="3">
-        <v>-241100</v>
+        <v>-247900</v>
       </c>
       <c r="F72" s="3">
-        <v>-217500</v>
+        <v>-235400</v>
       </c>
       <c r="G72" s="3">
-        <v>-210500</v>
+        <v>-212300</v>
       </c>
       <c r="H72" s="3">
-        <v>-198000</v>
+        <v>-205600</v>
       </c>
       <c r="I72" s="3">
-        <v>-187400</v>
+        <v>-193300</v>
       </c>
       <c r="J72" s="3">
+        <v>-182900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-172800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-166300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-159200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-160800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-158900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-160300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-162300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-161200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-12100</v>
+        <v>-16000</v>
       </c>
       <c r="E76" s="3">
-        <v>-6000</v>
+        <v>-11800</v>
       </c>
       <c r="F76" s="3">
-        <v>4400</v>
+        <v>-5900</v>
       </c>
       <c r="G76" s="3">
-        <v>11100</v>
+        <v>4300</v>
       </c>
       <c r="H76" s="3">
-        <v>20200</v>
+        <v>10900</v>
       </c>
       <c r="I76" s="3">
-        <v>24300</v>
+        <v>19700</v>
       </c>
       <c r="J76" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K76" s="3">
         <v>36600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-52800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-54900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-57000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-59700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-62100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-9700</v>
+      <c r="D81" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E81" s="3">
-        <v>-13100</v>
+        <v>-9400</v>
       </c>
       <c r="F81" s="3">
-        <v>-7400</v>
+        <v>-12800</v>
       </c>
       <c r="G81" s="3">
-        <v>-8900</v>
+        <v>-7200</v>
       </c>
       <c r="H81" s="3">
-        <v>-7100</v>
+        <v>-8700</v>
       </c>
       <c r="I81" s="3">
-        <v>-10500</v>
+        <v>-6900</v>
       </c>
       <c r="J81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="E83" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="F83" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="G83" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="H83" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="I83" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="J83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K83" s="3">
         <v>6100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>4500</v>
       </c>
       <c r="O83" s="3">
         <v>4500</v>
       </c>
       <c r="P83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>4300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
-        <v>21000</v>
-      </c>
       <c r="F89" s="3">
-        <v>12000</v>
+        <v>20500</v>
       </c>
       <c r="G89" s="3">
-        <v>23600</v>
+        <v>11700</v>
       </c>
       <c r="H89" s="3">
-        <v>20400</v>
+        <v>23000</v>
       </c>
       <c r="I89" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
-        <v>-800</v>
-      </c>
       <c r="H94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
-        <v>-472700</v>
-      </c>
       <c r="J94" s="3">
+        <v>-461600</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,46 +4614,47 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="E96" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="F96" s="3">
         <v>-4300</v>
       </c>
       <c r="G96" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="H96" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="I96" s="3">
         <v>-4400</v>
       </c>
       <c r="J96" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-3200</v>
       </c>
       <c r="P96" s="3">
         <v>-3200</v>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>-3200</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-3200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-25500</v>
+        <v>-18300</v>
       </c>
       <c r="E100" s="3">
-        <v>-14800</v>
+        <v>-24900</v>
       </c>
       <c r="F100" s="3">
-        <v>-17400</v>
+        <v>-14400</v>
       </c>
       <c r="G100" s="3">
-        <v>-12300</v>
+        <v>-17000</v>
       </c>
       <c r="H100" s="3">
-        <v>-11900</v>
+        <v>-12000</v>
       </c>
       <c r="I100" s="3">
-        <v>356700</v>
+        <v>-11600</v>
       </c>
       <c r="J100" s="3">
+        <v>348300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>78100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4628,86 +4877,92 @@
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-24600</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
-        <v>5000</v>
+        <v>-24000</v>
       </c>
       <c r="F102" s="3">
-        <v>-7000</v>
+        <v>4800</v>
       </c>
       <c r="G102" s="3">
-        <v>10300</v>
+        <v>-6800</v>
       </c>
       <c r="H102" s="3">
-        <v>7900</v>
+        <v>10100</v>
       </c>
       <c r="I102" s="3">
-        <v>-117100</v>
+        <v>7700</v>
       </c>
       <c r="J102" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="K102" s="3">
         <v>10800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>103800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2400</v>
       </c>
     </row>
